--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T06:56:56+00:00</t>
+    <t>2023-05-24T05:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -527,7 +527,9 @@
 このイベントによって全体または部分的に実施されるプラン、提案、依頼。たとえばMedicationRequest は調剤される前に臨床検査を患者に行う必要があるかもしれない。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;オーダ情報（ServiceRequestリソース）</t>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+【JP仕様】
+オーダ情報（ServiceRequestリソース）</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -627,7 +629,10 @@
 実施されているobservationの一般的なタイプを分類するコード</t>
   </si>
   <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;日本では適切なコード体系が存在しないため、独自のバリューセットを定義する&lt;br&gt;JP Coreとしては本コード体系を必須とし、他のローカルコード等を使用する場合はCoding要素の2つ目以降に設定する</t>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
+【JP仕様】
+日本では適切なコード体系が存在しないため、独自のバリューセットを定義する
+JP Coreとしては本コード体系を必須とし、他のローカルコード等を使用する場合はCoding要素の2つ目以降に設定する</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
@@ -741,7 +746,10 @@
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;[Slicing](http://hl7.org/fhir/profiling.html#slicing)を使用して複数のコード体系に対応&lt;br&gt;基本方針としてカテゴリに応じた標準コードの使用を想定しているが、ローカルコードを使用してもよい</t>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
+【JP仕様】
+[Slicing](http://hl7.org/fhir/profiling.html#slicing)を使用して複数のコード体系に対応
+基本方針としてカテゴリに応じた標準コードの使用を想定しているが、ローカルコードを使用してもよい</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -766,7 +774,10 @@
     <t>infectious-agent</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;同定菌名を表現する場合に使用する&lt;br&gt;NeXEHRSで使用を定める標準コードに準じて、JANIS菌名コードを採用する</t>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
+【JP仕様】
+同定菌名を表現する場合に使用する
+NeXEHRSで使用を定める標準コードに準じて、JANIS菌名コードを採用する</t>
   </si>
   <si>
     <t>Observation.code.coding:antimicrobial-drug</t>
@@ -775,7 +786,10 @@
     <t>antimicrobial-drug</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;抗菌薬コードを表現する場合に使用する&lt;br&gt;NeXEHRSで使用を定める標準コードに準じて、JANIS抗菌薬コードを採用する</t>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
+【JP仕様】
+抗菌薬コードを表現する場合に使用する
+NeXEHRSで使用を定める標準コードに準じて、JANIS抗菌薬コードを採用する</t>
   </si>
   <si>
     <t>Observation.code.coding:jlac10</t>
@@ -784,7 +798,10 @@
     <t>jlac10</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;塗抹結果、培養・同定結果を表現する場合に使用する&lt;br&gt;JLAC10コードを採用する</t>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
+【JP仕様】
+塗抹結果、培養・同定結果を表現する場合に使用する
+JLAC10コードを採用する</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS</t>
@@ -829,7 +846,9 @@
 もし観察の実際の焦点が対象（または対象のサンプル、一部、または領域）と異なる場合、 `focus`要素または` code`自体が観察の実際の焦点を指し示す。</t>
   </si>
   <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;患者（Patientリソース）</t>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
+【JP仕様】
+患者（Patientリソース）</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -886,7 +905,9 @@
 このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダの相互作用など）（受診、入院など）。</t>
   </si>
   <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;診察（Encounterリソース）</t>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
+【JP仕様】
+診察（Encounterリソース）</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -922,7 +943,9 @@
 観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;検体採取日</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
+【JP仕様】
+検体採取日</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1014,7 +1037,11 @@
 結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;valueQuantity：同定検査の菌量（定量）、薬剤感受性結果（MIC値）を表現する場合に使用する想定&lt;br&gt;valueCodeableConcept：同定検査の菌種を表現する場合に使用する想定&lt;br&gt;valueString：塗抹結果、培養検査の週数・菌量を表現する場合に使用する想定</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
+【JP仕様】
+valueQuantity：同定検査の菌量（定量）、薬剤感受性結果（MIC値）を表現する場合に使用する想定
+valueCodeableConcept：同定検査の菌種を表現する場合に使用する想定
+valueString：塗抹結果、培養検査の週数・菌量を表現する場合に使用する想定</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1084,7 +1111,9 @@
 観測値のカテゴリ別評価。たとえば、高、低、通常。</t>
   </si>
   <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;薬剤感受性結果（判定）を表現する場合に使用する想定</t>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
+【JP仕様】
+薬剤感受性結果（判定）を表現する場合に使用する想定</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.
@@ -1136,7 +1165,8 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>【JP仕様】&lt;br&gt;[FHIR仕様](http://hl7.org/fhir/v3/ObservationInterpretation/cs.html)で定義されているコード体系を採用</t>
+    <t>【JP仕様】
+[FHIR仕様](http://hl7.org/fhir/v3/ObservationInterpretation/cs.html)で定義されているコード体系を採用</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1579,7 +1609,9 @@
 このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.&lt;br&gt;&lt;br&gt;【JP仕様】&lt;br&gt;本リソースの子となるObservationリソース</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
+【JP仕様】
+本リソースの子となるObservationリソース</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-24T05:30:33+00:00</t>
+    <t>2023-05-25T12:24:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T12:24:32+00:00</t>
+    <t>2023-05-25T14:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-25T14:03:05+00:00</t>
+    <t>2023-05-28T11:24:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -306,13 +306,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -325,16 +325,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -345,13 +345,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -364,19 +364,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -396,13 +396,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -422,13 +422,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -448,33 +448,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -494,7 +495,7 @@
 Observationに割り当てられたユニーク（一意）の識別ID</t>
   </si>
   <si>
-    <t>Allows observations to be distinguished and referenced.</t>
+    <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -532,7 +533,7 @@
 オーダ情報（ServiceRequestリソース）</t>
   </si>
   <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+    <t>イベントの許可を追跡し、提案/勧告が行われたかどうかを追跡することができます。 / Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -578,7 +579,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>登録|予備|ファイナル|修正 + / registered | preliminary | final | amended +</t>
   </si>
   <si>
     <t>The status of the result value.　結果値のステータス。</t>
@@ -588,13 +589,13 @@
 このリソースは現在有効でないというマークをするコードを含んでいるため、この要素はモディファイアー（修飾的要素）として位置づけられている。</t>
   </si>
   <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+    <t>個々の結果のステータスを追跡する必要があります。レポート全体が最終決定される前に、いくつかの結果が確定します。 / Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
+    <t>観察のステータスを提供するコード。 / Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -635,7 +636,7 @@
 JP Coreとしては本コード体系を必須とし、他のローカルコード等を使用する場合はCoding要素の2つ目以降に設定する</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
+    <t>どの観測値が取得されて表示されるかをフィルタリングするために使用されます。 / Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_SimpleObservationCategory_VS</t>
@@ -665,13 +666,13 @@
 observationの意味を正しく理解するには、すべてのcode-valueペアと、さらに存在する場合にはcomponent.code-component.valueのペアが、考慮される必要がある。</t>
   </si>
   <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+    <t>どのような観察が行われているかを知ることは、観察を理解するために不可欠です。 / Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
+    <t>単純な観測の名前を識別するコード。 / Codes identifying names of simple observations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -702,10 +703,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -717,7 +718,7 @@
     <t>Observation.code.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -740,10 +741,10 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
@@ -752,7 +753,7 @@
 基本方針としてカテゴリに応じた標準コードの使用を想定しているが、ローカルコードを使用してもよい</t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -810,16 +811,16 @@
     <t>Observation.code.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -851,7 +852,7 @@
 患者（Patientリソース）</t>
   </si>
   <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
+    <t>あなたが彼らが誰または何をしているのかわからない場合、観察には価値がありません。 / Observations have no value if you don't know who or what they're about.</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -910,7 +911,7 @@
 診察（Encounterリソース）</t>
   </si>
   <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+    <t>一部の観察では、観察と特定のEncounterの間のリンクを知ることが重要かもしれません。 / For some observations it may be important to know the link between an observation and a particular encounter.</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -948,7 +949,7 @@
 検体採取日</t>
   </si>
   <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+    <t>観察が真実と見なされた時期を知ることは、その関連性にとって重要であり、傾向を決定します。 / Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1008,7 +1009,7 @@
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+    <t>観察にある程度の自信を与える可能性があり、また、フォローアップの質問をどこに向けるべきかを示します。 / May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1044,7 +1045,7 @@
 valueString：塗抹結果、培養検査の週数・菌量を表現する場合に使用する想定</t>
   </si>
   <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+    <t>観測は値を持つように存在しますが、それが誤っている場合、または観測のグループを表す場合はそうではありません。 / An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1078,13 +1079,13 @@
 ヌル値または例外値は、FHIRオブザベーションで2つの方法で表すことができる。 1つの方法は、それらを値セットに含めて、値の例外を表す方法である。たとえば、血清学的検査の測定値は、「検出された」、「検出されなかった」、「決定的でない」、または「検体が不十分」である可能性がある。別の方法は、実際の観測にvalue要素を使用し、明示的なdataAbsentReason要素を使用して例外的な値を記録することである。たとえば、測定が完了しなかった場合、dataAbsentReasonコード「error」を使用できる。この場合には、観測値は、報告する値がある場合にのみ報告される可能性があることに注意する必要がある。たとえば、差分セルカウント値は&gt; 0の場合にのみ報告される場合がある。これらのオプションのため、nullまたは例外値の一般的な観測値を解釈するにはユースケースの合意が必要である。</t>
   </si>
   <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+    <t>多くの結果には、測定で例外的な値を処理する必要があります。 / For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+    <t>結果（ `balue.value [x]`）が欠落している理由を指定するコード。 / Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
@@ -1104,7 +1105,7 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
+    <t>高、低、正常など。 / High, low, normal, etc.</t>
   </si>
   <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.
@@ -1120,7 +1121,7 @@
 一部の結果、特に数値結果については、結果の意義を完全に理解するためには解釈コードが必要である。</t>
   </si>
   <si>
-    <t>Codes identifying interpretations of observations.</t>
+    <t>観測の解釈を識別するコード。 / Codes identifying interpretations of observations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -1147,7 +1148,7 @@
     <t>Observation.interpretation.coding</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>Observation.interpretation.coding.id</t>
@@ -1159,17 +1160,17 @@
     <t>Observation.interpretation.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
     <t>【JP仕様】
 [FHIR仕様](http://hl7.org/fhir/v3/ObservationInterpretation/cs.html)で定義されているコード体系を採用</t>
   </si>
   <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation</t>
@@ -1187,13 +1188,13 @@
     <t>Observation.interpretation.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1208,13 +1209,13 @@
     <t>Observation.interpretation.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1229,13 +1230,13 @@
     <t>Observation.interpretation.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1254,16 +1255,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1312,14 +1313,15 @@
     <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
   </si>
   <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+    <t>観察が行われた被験者の本体のサイト（つまり、ターゲットサイト）を示します。 / Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>観察結果で見つかったコードで暗黙的ではない場合にのみ使用されます。多くのシステムでは、これはインラインコンポーネントの代わりに関連する観察として表される場合があります。
+ユースケースでは、ボディサイトを個別のリソースとして処理する必要がある場合（たとえば、個別に識別および追跡するため）、標準の拡張[BodySite]（Extension-BodySite.html）を使用します。 / Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
+    <t>解剖学的場所を説明するコード。左右性が含まれる場合があります。 / Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -1340,16 +1342,16 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
+    <t>観察を実行するために使用されるメカニズムを示します。 / Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>CODERATION.CODEのコードに暗黙的ではない場合にのみ使用されます。 / Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>場合によっては、メソッドは結果に影響を与える可能性があるため、結果を比較できるか、結果の重要性を決定できるかどうかを判断するために使用されます。 / In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>単純な観測の方法。 / Methods for simple observations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
@@ -1431,7 +1433,7 @@
     <t>Provides guide for interpretation　解釈のためのガイドを与える</t>
   </si>
   <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+    <t>通常または推奨範囲と比較して、値を解釈する方法に関するガイダンス。複数の参照範囲は「または」として解釈されます。言い換えれば、2つの異なるターゲット集団を表すために、2つの「参照」要素が使用されます。 / Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
@@ -1442,8 +1444,8 @@
 どの値が「正常」と見なされるかを知ることは、特定の結果の意義を評価するのに役立つ。さまざまなコンテキストに対応するため複数の参照範囲を提供できる必要がある。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:少なくとも低いまたは高またはテキストが必要です / Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
   </si>
   <si>
     <t>OBX.7</t>
@@ -1465,10 +1467,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1482,10 +1485,10 @@
 </t>
   </si>
   <si>
-    <t>Low Range, if relevant</t>
-  </si>
-  <si>
-    <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
+    <t>関連する場合は低レンジ / Low Range, if relevant</t>
+  </si>
+  <si>
+    <t>参照範囲の低境界の値。参照範囲のエンドポイントの低い境界には、値が含まれています（例：参照範囲は&gt; = 5- &lt;= 9）。下限が省略されている場合、それは意味がないと想定されます（例：参照範囲は&lt;= 2.3）。 / The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
     <t xml:space="preserve">obs-3
@@ -1501,10 +1504,10 @@
     <t>Observation.referenceRange.high</t>
   </si>
   <si>
-    <t>High Range, if relevant</t>
-  </si>
-  <si>
-    <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
+    <t>関連する場合、高レンジ / High Range, if relevant</t>
+  </si>
+  <si>
+    <t>参照範囲の強境界の値。参照範囲のエンドポイントの高境界には、値が含まれています（例：参照範囲は&gt; = 5- &lt;= 9）。高バウンドが省略されている場合、それは無意味であると想定されます（例：参照範囲は&gt; = 2.3）。 / The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
   </si>
   <si>
     <t>value:IVL_PQ.high</t>
@@ -1513,19 +1516,19 @@
     <t>Observation.referenceRange.type</t>
   </si>
   <si>
-    <t>Reference range qualifier</t>
-  </si>
-  <si>
-    <t>Codes to indicate the what part of the targeted reference population it applies to. For example, the normal or therapeutic range.</t>
-  </si>
-  <si>
-    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
-  </si>
-  <si>
-    <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
-  </si>
-  <si>
-    <t>Code for the meaning of a reference range.</t>
+    <t>参照範囲予選 / Reference range qualifier</t>
+  </si>
+  <si>
+    <t>適用されるターゲット参照母集団のどの部分を示すコード。たとえば、通常または治療範囲。 / Codes to indicate the what part of the targeted reference population it applies to. For example, the normal or therapeutic range.</t>
+  </si>
+  <si>
+    <t>複数の範囲がある場合は、これに浸透する必要があります。この要素が存在しない場合、通常の範囲が想定されます。 / This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
+  </si>
+  <si>
+    <t>適切な解釈のために、これが正常、推奨、治療など、どのような参照範囲を言うことができる必要があります。 / Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
+  </si>
+  <si>
+    <t>参照範囲の意味のコード。 / Code for the meaning of a reference range.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
@@ -1546,19 +1549,19 @@
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
-    <t>Reference range population</t>
-  </si>
-  <si>
-    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
-  </si>
-  <si>
-    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
-  </si>
-  <si>
-    <t>Need to be able to identify the target population for proper interpretation.</t>
-  </si>
-  <si>
-    <t>Codes identifying the population the reference range applies to.</t>
+    <t>参照範囲の母集団 / Reference range population</t>
+  </si>
+  <si>
+    <t>この参照範囲が適用される対象母集団を示すコード。たとえば、参照範囲は、通常の集団または特定の性別または人種に基づいている場合があります。複数の「Applesto」は、ターゲット集団の「および」として解釈されます。たとえば、アフリカ系アメリカ人の女性の対象集団を代表するために、女性のコードとアフリカ系アメリカ人のコードの両方が使用されます。 / Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
+  </si>
+  <si>
+    <t>複数の範囲がある場合は、これに浸透する必要があります。この要素が存在しない場合、通常の母集団が想定されます。 / This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
+  </si>
+  <si>
+    <t>適切な解釈のためにターゲット母集団を特定できる必要があります。 / Need to be able to identify the target population for proper interpretation.</t>
+  </si>
+  <si>
+    <t>参照範囲が適用される母集団を識別するコード。 / Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
@@ -1571,13 +1574,13 @@
 </t>
   </si>
   <si>
-    <t>Applicable age range, if relevant</t>
-  </si>
-  <si>
-    <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
-  </si>
-  <si>
-    <t>Some analytes vary greatly over age.</t>
+    <t>適用される年齢範囲、関連する場合 / Applicable age range, if relevant</t>
+  </si>
+  <si>
+    <t>この参照範囲が適用される年齢。意味がそう言っている場合、これは新生児の年齢（期間の週数）です。 / The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
+  </si>
+  <si>
+    <t>一部の分析物は、年齢によって大きく異なります。 / Some analytes vary greatly over age.</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
@@ -1586,10 +1589,10 @@
     <t>Observation.referenceRange.text</t>
   </si>
   <si>
-    <t>Text based reference range in an observation</t>
-  </si>
-  <si>
-    <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
+    <t>観察中のテキストベースの参照範囲 / Text based reference range in an observation</t>
+  </si>
+  <si>
+    <t>テキストベースの参照範囲の観測では、定量的範囲が観測に適していない場合に使用される場合があります。例は、「ネガティブ」の参照値、または「通常」のリストまたはテーブルです。 / Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
   </si>
   <si>
     <t>value:ST</t>
@@ -1677,13 +1680,13 @@
     <t>Observation.component.code</t>
   </si>
   <si>
-    <t>Type of component observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>コンポーネント観測の種類（コード /タイプ） / Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>観察されたものについて説明します。これは、「コード」と呼ばれることがあります。 / Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*すべて* code-valueおよびcomponent.code-component.valueペアを考慮する必要があります。観察の意味を正しく理解する必要があります。 / *All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1697,13 +1700,13 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>実際のコンポーネントの結果 / Actual component result</t>
+  </si>
+  <si>
+    <t>情報が単純な値を持っている場合、観察結果の結果として決定された情報。 / The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>観察には一連のコンポーネント観測がある場合に使用されます。観察には、値（APGARスコアなど）とコンポーネントの観測（APGARスコアが導き出された観測）の両方があります。値が存在する場合、この要素のデータ型は、viscervation.codeによって決定する必要があります。フィールドが通常コーディングされている場合、または観測に関連付けられたタイプの場合、文字列の代わりにテキストのみを持つCodeableconecteが使用されます。コードはコード化された値を定義します。追加のガイダンスについては、以下の[[メモ]セクション]（[観察.html＃注）を参照してください。 / Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1712,41 +1715,42 @@
     <t>Observation.component.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the component result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
+    <t>コンポーネントの結果が欠落している理由 / Why the component result is missing</t>
+  </si>
+  <si>
+    <t>Element obervation.component.value [x]の期待値が欠落している理由を提供します。 / Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>「null」または例外的な値は、FHIR観測で2つの方法を表すことができます。1つの方法は、それらを単に値セットに含めるだけで、値の例外を表すことです。たとえば、血清学テストの測定値は、「検出」、「検出されない」、「決定的でない」、または「テストなし」です。
+別の方法は、実際の観測に値要素を使用し、明示的なDataBsEntreason要素を使用して例外的な値を記録することです。たとえば、測定が完了していないときに、DataBsentrasonコード「エラー」を使用できます。これらのオプションのため、一般的な観測を例外的な価値のために解釈するには、ユースケース契約が必要です。 / "Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
   </si>
   <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+    <t>観測値のカテゴリー評価。たとえば、高、低、正常。 / A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>歴史的に実験室の結果（「異常なフラグ」と呼ばれる）に使用されていたため、その使用は、コード化された解釈が関連する他のユースケースにまで及びます。多くの場合、1つ以上の単純なコンパクトコードとして報告されているこの要素は、結果の意味/正常性のステータスを示すレポートとフローシートの結果値に隣接することがよくあります。 / Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>いくつかの結果、特に数値の結果については、結果の重要性を完全に理解するために解釈が必要です。 / For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
   </si>
   <si>
-    <t>Provides guide for interpretation of component result</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+    <t>コンポーネント結果の解釈のためのガイドを提供します / Provides guide for interpretation of component result</t>
+  </si>
+  <si>
+    <t>通常または推奨範囲と比較して、値を解釈する方法に関するガイダンス。 / Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>ほとんどの観測には、一般的な参照範囲が1つしかありません。システムは、患者に関する知識（患者の年齢、性別、体重、その他の要因に固有）に基づいて、関連する参照範囲のみを供給することを制限することを選択できますが、これは不可能または適切ではない場合があります。複数の参照範囲が提供される場合は、それらの間の違いを参照範囲および/または年齢特性で提供する必要があります。 / Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>どの値が「正常」と見なされるかを知ることは、特定の結果の重要性を評価するのに役立ちます。さまざまなコンテキストに複数の参照範囲を提供できる必要があります。 / Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2090,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="105.8828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="63.09375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-28T11:24:24+00:00</t>
+    <t>2023-05-28T11:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-28T11:55:44+00:00</t>
+    <t>2023-05-28T13:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-28T13:14:23+00:00</t>
+    <t>2023-05-29T00:45:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T00:45:40+00:00</t>
+    <t>2023-05-29T01:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T01:05:14+00:00</t>
+    <t>2023-05-29T01:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T01:26:07+00:00</t>
+    <t>2023-05-29T01:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T01:49:34+00:00</t>
+    <t>2023-05-29T02:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T02:03:54+00:00</t>
+    <t>2023-05-29T02:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T02:06:57+00:00</t>
+    <t>2023-05-29T02:38:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T02:38:20+00:00</t>
+    <t>2023-05-29T04:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T04:12:25+00:00</t>
+    <t>2023-05-29T05:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T05:10:29+00:00</t>
+    <t>2023-05-29T05:57:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T05:57:16+00:00</t>
+    <t>2023-05-29T06:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T06:38:26+00:00</t>
+    <t>2023-05-29T12:27:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T12:27:19+00:00</t>
+    <t>2023-05-30T09:42:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T09:42:08+00:00</t>
+    <t>2023-05-30T11:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T11:19:35+00:00</t>
+    <t>2023-05-30T11:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,11 +488,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation　Observationのためのビジネス識別子</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.
-Observationに割り当てられたユニーク（一意）の識別ID</t>
+    <t>このObservationリソースの一意な識別ID。</t>
   </si>
   <si>
     <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
@@ -521,11 +517,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order　実施されるプラン、提案、依頼</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.
-このイベントによって全体または部分的に実施されるプラン、提案、依頼。たとえばMedicationRequest は調剤される前に臨床検査を患者に行う必要があるかもしれない。</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -556,11 +548,10 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event　参照されるイベントの一部分</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation。</t>
+    <t>"このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -579,10 +570,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>登録|予備|ファイナル|修正 + / registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.　結果値のステータス。</t>
+    <t>"結果の状態。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>結果の状態。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
@@ -623,11 +614,10 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.
-実施されているobservationの一般的なタイプを分類するコード</t>
+    <t>"このObservationを分類するコード。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationを分類するコード。</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
@@ -655,11 +645,10 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)　observation のタイプ（コードまたはタイプ）</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".
-observationの対象物を記述する。 observation の名前で呼ばれることもある。</t>
+    <t>"このObservationの対象を特定するコード。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象を特定するコード。</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
@@ -839,12 +828,10 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about　観察対象者</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.
-この観察が行われた対象となる患者、または患者のグループ、場所、またはデバイス、あるいはそれらの記録。
-もし観察の実際の焦点が対象（または対象のサンプル、一部、または領域）と異なる場合、 `focus`要素または` code`自体が観察の実際の焦点を指し示す。</t>
+    <t>"このObservationの対象となる患者や患者群、機器、場所に関する情報。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
@@ -874,11 +861,10 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
-配偶者、親、胎児、ドナーなど、患者に関連する何かまたは誰かを表す記録の患者ではない場合の、観察の実際の焦点。たとえば、母親の記録にある胎児の観察。観察の焦点はまた、既存の状態、介入、対象の食事、対象の別の観察、または腫瘍または埋め込まれた装置などの体の構造であり得る。使用例はobservationリソースを使用して、母親が子供の気管切開チューブを交換するように訓練されているかどうかをキャプチャすることである。この例では、子供が記録の患者であり、母親が焦点（focus）となる。</t>
+    <t>"配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
@@ -899,11 +885,10 @@
 </t>
   </si>
   <si>
-    <t>Healthcare event during which this observation is made　このobservationが行われるヘルスケアイベント</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
-このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダの相互作用など）（受診、入院など）。</t>
+    <t>"診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -937,11 +922,10 @@
 Period</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation　臨床的に関連する時刻または時間</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.
-観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+    <t>"取得された結果が臨床的に確定された日時または期間。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>取得された結果が臨床的に確定された日時または期間。</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
@@ -971,11 +955,10 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available　このバージョンが利用可能となった日時</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.
-このバージョンのレポートが医療者に提供された日時。通常、レポートがレビューおよび検証された後となる。</t>
+    <t>"このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。</t>
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
@@ -998,11 +981,10 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation　observationに責任をもつ者</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".
-そのobservationは真だと言える責任者</t>
+    <t>"このObservationの責任者/実施者に関する情報。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの責任者/実施者に関する情報。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -1031,11 +1013,7 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>Actual result　実際の結果値</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.
-結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
+    <t>取得された結果。</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
@@ -1067,11 +1045,10 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing　結果が欠損値である理由</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.
-Observation.value[x] 要素に期待される結果が存在しない理由を設定する。</t>
+    <t>"このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
@@ -1105,11 +1082,10 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常など。 / High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.
-観測値のカテゴリ別評価。たとえば、高、低、通常。</t>
+    <t>"高、低、正常等の結果のカテゴリ分けした評価。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>高、低、正常等の結果のカテゴリ分けした評価。</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
@@ -1286,11 +1262,10 @@
 </t>
   </si>
   <si>
-    <t>Comments about the observation　結果に対するコメント</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.
-観測値、結果に対するコメント</t>
+    <t>"このObservationに関するコメント。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関するコメント。</t>
   </si>
   <si>
     <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
@@ -1310,10 +1285,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
-  </si>
-  <si>
-    <t>観察が行われた被験者の本体のサイト（つまり、ターゲットサイト）を示します。 / Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+    <t>対象となった身体部位。</t>
   </si>
   <si>
     <t>観察結果で見つかったコードで暗黙的ではない場合にのみ使用されます。多くのシステムでは、これはインラインコンポーネントの代わりに関連する観察として表される場合があります。
@@ -1342,7 +1314,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>観察を実行するために使用されるメカニズムを示します。 / Indicates the mechanism used to perform the observation.</t>
+    <t>このObservationの実施方法。</t>
   </si>
   <si>
     <t>CODERATION.CODEのコードに暗黙的ではない場合にのみ使用されます。 / Only used if not implicit in code for Observation.code.</t>
@@ -1370,11 +1342,10 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation　観察（観測、検査）に使われた検体材料</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.
-この観察（観測、検査）が実施されたときに使われた検体材料</t>
+    <t>"このObservationに使われた検体/標本に関する情報。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに使われた検体/標本に関する情報。</t>
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
@@ -1400,11 +1371,10 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device　測定機器</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.
-観察データを生成するために使われた機器</t>
+    <t>"このObservationでデータを得るために使われた測定機器に関する情報。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報。</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
@@ -1430,10 +1400,10 @@
 </t>
   </si>
   <si>
-    <t>Provides guide for interpretation　解釈のためのガイドを与える</t>
-  </si>
-  <si>
-    <t>通常または推奨範囲と比較して、値を解釈する方法に関するガイダンス。複数の参照範囲は「または」として解釈されます。言い換えれば、2つの異なるターゲット集団を表すために、2つの「参照」要素が使用されます。 / Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+    <t>"基準範囲との比較による結果の解釈方法のガイダンス。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス。</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
@@ -1605,11 +1575,10 @@
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group　observationグループに属する関連リソース</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+    <t>"このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1630,11 +1599,10 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
-  </si>
-  <si>
-    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
-このobservation が導出される元の測定値を表すターゲットリソース。たとえば、超音波画像に基づいて計算されたアニオンギャップまたは胎児の測定値の場合、この要素には、元となった超音波画像検査結果への参照を設定する。</t>
+    <t>"このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
@@ -1647,11 +1615,10 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results　　コンポーネント結果</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.
-一部の観測には、複数のコンポーネントの観測がある。これらのコンポーネントの観察結果は、同じ属性を共有する個別のコード値のペアとして表される。例としては、血圧測定のための収縮期および拡張期のコンポーネントの観察や、遺伝学の観察のための複数のコンポーネントの観察がある。</t>
+    <t>"複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。"【詳細参照】</t>
+  </si>
+  <si>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
@@ -1727,6 +1694,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>高、低、正常など。 / High, low, normal, etc.</t>
   </si>
   <si>
     <t>観測値のカテゴリー評価。たとえば、高、低、正常。 / A categorical assessment of an observation value.  For example, high, low, normal.</t>
@@ -3351,11 +3321,11 @@
         <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>83</v>
@@ -3419,19 +3389,19 @@
         <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
@@ -3439,14 +3409,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3465,19 +3435,19 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3526,7 +3496,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3541,16 +3511,16 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>83</v>
@@ -3561,14 +3531,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3587,16 +3557,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3646,7 +3616,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3661,16 +3631,16 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3681,10 +3651,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3710,16 +3680,16 @@
         <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3744,14 +3714,14 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
       </c>
@@ -3768,7 +3738,7 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>93</v>
@@ -3783,19 +3753,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
@@ -3803,10 +3773,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3829,19 +3799,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3870,7 +3840,7 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -3888,7 +3858,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3912,10 +3882,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -3923,14 +3893,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3949,19 +3919,19 @@
         <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3986,14 +3956,14 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
       </c>
@@ -4010,7 +3980,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>93</v>
@@ -4025,30 +3995,30 @@
         <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4071,13 +4041,13 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4128,7 +4098,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4152,7 +4122,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4163,10 +4133,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4195,7 +4165,7 @@
         <v>140</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>142</v>
@@ -4236,19 +4206,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4272,7 +4242,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4283,10 +4253,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4309,19 +4279,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4358,17 +4328,17 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4389,10 +4359,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4403,13 +4373,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>83</v>
@@ -4431,19 +4401,19 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4492,7 +4462,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4513,10 +4483,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4527,13 +4497,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>83</v>
@@ -4555,19 +4525,19 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4616,7 +4586,7 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4637,10 +4607,10 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4651,13 +4621,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>83</v>
@@ -4679,19 +4649,19 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4716,11 +4686,11 @@
         <v>83</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>83</v>
@@ -4738,7 +4708,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4759,10 +4729,10 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -4773,10 +4743,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4799,19 +4769,19 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -4860,7 +4830,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4881,10 +4851,10 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -4895,10 +4865,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4921,19 +4891,19 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4982,7 +4952,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4997,19 +4967,19 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -5017,10 +4987,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5043,16 +5013,16 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5102,7 +5072,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5123,13 +5093,13 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5137,14 +5107,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5163,19 +5133,19 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5224,7 +5194,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5239,19 +5209,19 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5259,14 +5229,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5285,19 +5255,19 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5346,7 +5316,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5361,19 +5331,19 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5381,10 +5351,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5407,16 +5377,16 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5466,7 +5436,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5487,13 +5457,13 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5501,10 +5471,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5527,19 +5497,19 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5588,7 +5558,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5603,19 +5573,19 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
@@ -5623,10 +5593,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5649,19 +5619,19 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5710,7 +5680,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5719,7 +5689,7 @@
         <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>105</v>
@@ -5728,27 +5698,27 @@
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5771,19 +5741,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5808,13 +5778,13 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5832,7 +5802,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5841,7 +5811,7 @@
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
@@ -5856,7 +5826,7 @@
         <v>136</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5867,14 +5837,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5893,19 +5863,19 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5930,13 +5900,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5954,7 +5924,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5972,27 +5942,27 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6015,13 +5985,13 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6072,7 +6042,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6096,7 +6066,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6107,10 +6077,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6139,7 +6109,7 @@
         <v>140</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>142</v>
@@ -6180,19 +6150,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6216,7 +6186,7 @@
         <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6227,10 +6197,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6253,19 +6223,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6314,7 +6284,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6335,10 +6305,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6349,10 +6319,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6375,13 +6345,13 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6432,7 +6402,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6456,7 +6426,7 @@
         <v>83</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6467,10 +6437,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6499,7 +6469,7 @@
         <v>140</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>142</v>
@@ -6540,19 +6510,19 @@
         <v>83</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6576,7 +6546,7 @@
         <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6587,10 +6557,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6616,23 +6586,23 @@
         <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>83</v>
@@ -6674,7 +6644,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6695,10 +6665,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6709,10 +6679,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6735,16 +6705,16 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6794,7 +6764,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6815,10 +6785,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6829,10 +6799,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6858,14 +6828,14 @@
         <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6914,7 +6884,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6935,10 +6905,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6949,10 +6919,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6975,17 +6945,17 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -7034,7 +7004,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7055,10 +7025,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7069,10 +7039,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7095,19 +7065,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7156,7 +7126,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7177,10 +7147,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7191,10 +7161,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7217,19 +7187,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7278,7 +7248,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7299,10 +7269,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7313,10 +7283,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7339,19 +7309,19 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7400,7 +7370,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7421,10 +7391,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7435,10 +7405,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7461,16 +7431,16 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7496,13 +7466,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7520,7 +7490,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7538,27 +7508,27 @@
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7581,19 +7551,19 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7618,13 +7588,13 @@
         <v>83</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>83</v>
@@ -7642,7 +7612,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7663,10 +7633,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7677,10 +7647,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7703,16 +7673,16 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7762,7 +7732,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7780,27 +7750,27 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7823,16 +7793,16 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7882,7 +7852,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7900,27 +7870,27 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7943,19 +7913,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8004,7 +7974,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8016,7 +7986,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -8025,10 +7995,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8039,10 +8009,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8065,13 +8035,13 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8122,7 +8092,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8146,7 +8116,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8157,10 +8127,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8189,7 +8159,7 @@
         <v>140</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>142</v>
@@ -8242,7 +8212,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8266,7 +8236,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8277,14 +8247,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8306,10 +8276,10 @@
         <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>142</v>
@@ -8364,7 +8334,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8399,10 +8369,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8425,13 +8395,13 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8482,7 +8452,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8491,7 +8461,7 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>105</v>
@@ -8503,10 +8473,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8517,10 +8487,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8543,13 +8513,13 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8600,7 +8570,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8609,7 +8579,7 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>105</v>
@@ -8621,10 +8591,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8635,10 +8605,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8661,19 +8631,19 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8701,10 +8671,10 @@
         <v>117</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8722,7 +8692,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8740,13 +8710,13 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8757,10 +8727,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8783,19 +8753,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8820,13 +8790,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8844,7 +8814,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8862,13 +8832,13 @@
         <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8879,10 +8849,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8905,17 +8875,17 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8964,7 +8934,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8988,7 +8958,7 @@
         <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8999,10 +8969,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9025,13 +8995,13 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9082,7 +9052,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9103,10 +9073,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9117,10 +9087,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9143,16 +9113,16 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9202,7 +9172,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9223,10 +9193,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9237,10 +9207,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9263,16 +9233,16 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9322,7 +9292,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9343,10 +9313,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9357,10 +9327,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9383,19 +9353,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9444,7 +9414,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9465,10 +9435,10 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9479,10 +9449,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9505,13 +9475,13 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9562,7 +9532,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9586,7 +9556,7 @@
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9597,10 +9567,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9629,7 +9599,7 @@
         <v>140</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>142</v>
@@ -9682,7 +9652,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9706,7 +9676,7 @@
         <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9717,14 +9687,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9746,10 +9716,10 @@
         <v>139</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>142</v>
@@ -9804,7 +9774,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9839,10 +9809,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9865,19 +9835,19 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -9902,14 +9872,14 @@
         <v>83</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>83</v>
       </c>
@@ -9926,7 +9896,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>93</v>
@@ -9944,16 +9914,16 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -9961,10 +9931,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9987,19 +9957,19 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10048,7 +10018,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10066,27 +10036,27 @@
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10109,19 +10079,19 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10146,13 +10116,13 @@
         <v>83</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10170,7 +10140,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10179,7 +10149,7 @@
         <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10194,7 +10164,7 @@
         <v>136</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10205,14 +10175,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10231,19 +10201,19 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>334</v>
+        <v>522</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10268,13 +10238,13 @@
         <v>83</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>83</v>
@@ -10292,7 +10262,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10310,27 +10280,27 @@
         <v>83</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10356,16 +10326,16 @@
         <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10414,7 +10384,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10435,10 +10405,10 @@
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T11:56:56+00:00</t>
+    <t>2023-05-30T12:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。"【詳細参照】</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
@@ -570,7 +570,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>"結果の状態。"【詳細参照】</t>
+    <t>結果の状態。【詳細参照】</t>
   </si>
   <si>
     <t>結果の状態。</t>
@@ -614,7 +614,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationを分類するコード。"【詳細参照】</t>
+    <t>このObservationを分類するコード。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationを分類するコード。</t>
@@ -645,7 +645,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationの対象を特定するコード。"【詳細参照】</t>
+    <t>このObservationの対象を特定するコード。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationの対象を特定するコード。</t>
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationの対象となる患者や患者群、機器、場所に関する情報。"【詳細参照】</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
@@ -861,7 +861,7 @@
 </t>
   </si>
   <si>
-    <t>"配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。"【詳細参照】</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
@@ -885,7 +885,7 @@
 </t>
   </si>
   <si>
-    <t>"診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。"【詳細参照】</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。</t>
@@ -922,7 +922,7 @@
 Period</t>
   </si>
   <si>
-    <t>"取得された結果が臨床的に確定された日時または期間。"【詳細参照】</t>
+    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
   </si>
   <si>
     <t>取得された結果が臨床的に確定された日時または期間。</t>
@@ -955,7 +955,7 @@
 </t>
   </si>
   <si>
-    <t>"このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。"【詳細参照】</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。</t>
@@ -981,7 +981,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationの責任者/実施者に関する情報。"【詳細参照】</t>
+    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationの責任者/実施者に関する情報。</t>
@@ -1045,7 +1045,7 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>"このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。"【詳細参照】</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。</t>
@@ -1082,7 +1082,7 @@
 </t>
   </si>
   <si>
-    <t>"高、低、正常等の結果のカテゴリ分けした評価。"【詳細参照】</t>
+    <t>高、低、正常等の結果のカテゴリ分けした評価。【詳細参照】</t>
   </si>
   <si>
     <t>高、低、正常等の結果のカテゴリ分けした評価。</t>
@@ -1262,7 +1262,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationに関するコメント。"【詳細参照】</t>
+    <t>このObservationに関するコメント。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationに関するコメント。</t>
@@ -1342,7 +1342,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationに使われた検体/標本に関する情報。"【詳細参照】</t>
+    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationに使われた検体/標本に関する情報。</t>
@@ -1371,7 +1371,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationでデータを得るために使われた測定機器に関する情報。"【詳細参照】</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationでデータを得るために使われた測定機器に関する情報。</t>
@@ -1400,7 +1400,7 @@
 </t>
   </si>
   <si>
-    <t>"基準範囲との比較による結果の解釈方法のガイダンス。"【詳細参照】</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
   </si>
   <si>
     <t>基準範囲との比較による結果の解釈方法のガイダンス。</t>
@@ -1575,7 +1575,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。"【詳細参照】</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。</t>
@@ -1599,7 +1599,7 @@
 </t>
   </si>
   <si>
-    <t>"このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。"【詳細参照】</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
   </si>
   <si>
     <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。</t>
@@ -1615,7 +1615,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>"複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。"【詳細参照】</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
   </si>
   <si>
     <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T12:41:12+00:00</t>
+    <t>2023-05-30T13:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T13:00:46+00:00</t>
+    <t>2023-05-31T05:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-31T05:02:46+00:00</t>
+    <t>2023-06-01T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-01T06:00:59+00:00</t>
+    <t>2023-06-02T10:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T10:44:14+00:00</t>
+    <t>2023-06-04T23:39:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-04T23:39:17+00:00</t>
+    <t>2023-06-05T20:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T20:38:40+00:00</t>
+    <t>2023-06-06T08:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T08:19:42+00:00</t>
+    <t>2023-06-06T10:53:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T10:53:00+00:00</t>
+    <t>2023-06-08T09:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationリソースの一意な識別ID。</t>
+    <t>このObservationリソースの一意な識別ID</t>
   </si>
   <si>
     <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
@@ -517,7 +517,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -548,10 +548,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -570,10 +570,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>結果の状態。【詳細参照】</t>
-  </si>
-  <si>
-    <t>結果の状態。</t>
+    <t>結果の状態【詳細参照】</t>
+  </si>
+  <si>
+    <t>結果の状態</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
@@ -614,10 +614,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationを分類するコード。</t>
+    <t>このObservationを分類するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationを分類するコード</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
@@ -645,10 +645,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの対象を特定するコード。</t>
+    <t>このObservationの対象を特定するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
@@ -828,10 +828,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
@@ -861,10 +861,10 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
@@ -885,10 +885,10 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -922,10 +922,10 @@
 Period</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
-  </si>
-  <si>
-    <t>取得された結果が臨床的に確定された日時または期間。</t>
+    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
+  </si>
+  <si>
+    <t>取得された結果が臨床的に確定された日時または期間</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
@@ -955,10 +955,10 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
@@ -981,10 +981,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの責任者/実施者に関する情報。</t>
+    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -1013,7 +1013,7 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>取得された結果。</t>
+    <t>取得された結果</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
@@ -1045,10 +1045,10 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
@@ -1082,10 +1082,10 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価。【詳細参照】</t>
-  </si>
-  <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価。</t>
+    <t>高、低、正常等の結果のカテゴリ分けした評価【詳細参照】</t>
+  </si>
+  <si>
+    <t>高、低、正常等の結果のカテゴリ分けした評価</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
@@ -1262,10 +1262,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関するコメント。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに関するコメント。</t>
+    <t>このObservationに関するコメント【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関するコメント</t>
   </si>
   <si>
     <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
@@ -1285,7 +1285,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>対象となった身体部位。</t>
+    <t>対象となった身体部位</t>
   </si>
   <si>
     <t>観察結果で見つかったコードで暗黙的ではない場合にのみ使用されます。多くのシステムでは、これはインラインコンポーネントの代わりに関連する観察として表される場合があります。
@@ -1314,7 +1314,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>このObservationの実施方法。</t>
+    <t>このObservationの実施方法</t>
   </si>
   <si>
     <t>CODERATION.CODEのコードに暗黙的ではない場合にのみ使用されます。 / Only used if not implicit in code for Observation.code.</t>
@@ -1342,10 +1342,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに使われた検体/標本に関する情報。</t>
+    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
@@ -1371,10 +1371,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
@@ -1400,10 +1400,10 @@
 </t>
   </si>
   <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
+  </si>
+  <si>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
@@ -1575,10 +1575,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1599,10 +1599,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
@@ -1615,10 +1615,10 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
-  </si>
-  <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
+  </si>
+  <si>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:56:28+00:00</t>
+    <t>2023-06-09T05:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T05:22:07+00:00</t>
+    <t>2023-06-09T06:21:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T06:21:44+00:00</t>
+    <t>2023-06-09T06:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T06:32:44+00:00</t>
+    <t>2023-06-09T09:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T09:08:11+00:00</t>
+    <t>2023-06-09T09:51:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T09:51:49+00:00</t>
+    <t>2023-06-10T23:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T11:09:35+00:00</t>
+    <t>2023-06-11T12:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T12:23:53+00:00</t>
+    <t>2023-06-11T12:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T12:40:09+00:00</t>
+    <t>2023-06-12T01:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T01:40:13+00:00</t>
+    <t>2023-06-12T02:08:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T02:08:45+00:00</t>
+    <t>2023-06-12T13:27:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T13:27:37+00:00</t>
+    <t>2023-06-12T13:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T13:46:23+00:00</t>
+    <t>2023-06-13T07:11:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T08:29:11+00:00</t>
+    <t>2023-06-13T23:25:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T00:30:28+00:00</t>
+    <t>2023-06-14T02:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T02:21:32+00:00</t>
+    <t>2023-06-14T05:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T05:02:49+00:00</t>
+    <t>2023-06-14T06:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:06:53+00:00</t>
+    <t>2023-06-14T20:07:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T20:07:30+00:00</t>
+    <t>2023-06-14T22:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T22:10:16+00:00</t>
+    <t>2023-06-14T23:12:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T23:12:14+00:00</t>
+    <t>2023-06-15T01:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-15T01:31:35+00:00</t>
+    <t>2023-06-15T02:03:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-15T02:03:42+00:00</t>
+    <t>2023-06-15T05:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1096,7 +1096,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.10.3.100.5.27.4.1</t>
+    <t>urn:oid:1.2.392.100495.10.3.100.5.27.6.1</t>
   </si>
   <si>
     <t>Observation.code.coding:infectious-agent.version</t>
@@ -1151,7 +1151,7 @@
     <t>Observation.code.coding:antimicrobial-drug.system</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.10.3.100.5.11.5.0</t>
+    <t>urn:oid:1.2.392.100495.10.3.100.5.11.5.2</t>
   </si>
   <si>
     <t>Observation.code.coding:antimicrobial-drug.version</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-15T05:26:48+00:00</t>
+    <t>2023-06-16T00:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T00:47:40+00:00</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -606,6 +606,9 @@
     <t>Observation.category</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
@@ -639,10 +642,10 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:microbiology</t>
-  </si>
-  <si>
-    <t>microbiology</t>
+    <t>Observation.category:laboratory</t>
+  </si>
+  <si>
+    <t>laboratory</t>
   </si>
   <si>
     <t>このObservationに関する分類（JP_SimpleObservationCategory_VS）、必須項目</t>
@@ -652,7 +655,7 @@
 必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.id</t>
+    <t>Observation.category:laboratory.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -674,7 +677,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.extension</t>
+    <t>Observation.category:laboratory.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -693,7 +696,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.coding</t>
+    <t>Observation.category:laboratory.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -724,19 +727,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.coding.id</t>
+    <t>Observation.category:laboratory.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.coding.extension</t>
+    <t>Observation.category:laboratory.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.coding.system</t>
+    <t>Observation.category:laboratory.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -766,7 +769,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.coding.version</t>
+    <t>Observation.category:laboratory.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -790,7 +793,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.coding.code</t>
+    <t>Observation.category:laboratory.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -805,9 +808,6 @@
     <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>laboratory</t>
-  </si>
-  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -817,7 +817,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.coding.display</t>
+    <t>Observation.category:laboratory.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -841,7 +841,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:microbiology.coding.userSelected</t>
+    <t>Observation.category:laboratory.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -872,79 +872,82 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
+    <t>Observation.category:laboratory.text</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology</t>
+  </si>
+  <si>
+    <t>microbiology</t>
+  </si>
+  <si>
+    <t>このObservationに関するLOINC上の分類、任意項目</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationCategory_Microbiology_VS</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.id</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.dummy.org</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.coding.code</t>
+  </si>
+  <si>
+    <t>18725-2</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:microbiology.coding.userSelected</t>
+  </si>
+  <si>
     <t>Observation.category:microbiology.text</t>
-  </si>
-  <si>
-    <t>Observation.category.text</t>
-  </si>
-  <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc</t>
-  </si>
-  <si>
-    <t>loinc</t>
-  </si>
-  <si>
-    <t>このObservationに関するLOINC上の分類、任意項目</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.id</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.coding.system</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.coding.code</t>
-  </si>
-  <si>
-    <t>18725-2</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:loinc.text</t>
   </si>
   <si>
     <t>Observation.category:microbiologyCategory</t>
@@ -2303,7 +2306,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="105.8828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.40234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4026,7 +4029,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
@@ -4041,19 +4044,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -4082,20 +4085,20 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>188</v>
@@ -4122,10 +4125,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -4133,13 +4136,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>188</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -4161,19 +4164,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -4202,7 +4205,7 @@
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -4244,10 +4247,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -4255,10 +4258,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4281,13 +4284,13 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4338,7 +4341,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4362,7 +4365,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4373,10 +4376,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4405,7 +4408,7 @@
         <v>140</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>142</v>
@@ -4446,19 +4449,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4482,7 +4485,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4493,10 +4496,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4519,19 +4522,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4580,7 +4583,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4601,10 +4604,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4615,10 +4618,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4641,13 +4644,13 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4698,7 +4701,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4722,7 +4725,7 @@
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4733,10 +4736,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4765,7 +4768,7 @@
         <v>140</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>142</v>
@@ -4806,19 +4809,19 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4842,7 +4845,7 @@
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4853,10 +4856,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4882,23 +4885,23 @@
         <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4940,7 +4943,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4961,10 +4964,10 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -4975,10 +4978,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5001,16 +5004,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5060,7 +5063,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5081,10 +5084,10 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -5095,10 +5098,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5124,21 +5127,21 @@
         <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>83</v>
@@ -5241,7 +5244,7 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>259</v>
@@ -5483,7 +5486,7 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>277</v>
@@ -5592,10 +5595,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>83</v>
@@ -5607,7 +5610,7 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>286</v>
@@ -5616,10 +5619,10 @@
         <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5648,7 +5651,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5690,10 +5693,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5701,10 +5704,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5727,13 +5730,13 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5784,7 +5787,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5808,7 +5811,7 @@
         <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5819,10 +5822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5851,7 +5854,7 @@
         <v>140</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>142</v>
@@ -5892,19 +5895,19 @@
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5928,7 +5931,7 @@
         <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5939,10 +5942,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5965,19 +5968,19 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -6026,7 +6029,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6047,10 +6050,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -6061,10 +6064,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6087,13 +6090,13 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6144,7 +6147,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6168,7 +6171,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6179,10 +6182,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6211,7 +6214,7 @@
         <v>140</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>142</v>
@@ -6252,19 +6255,19 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6288,7 +6291,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6299,10 +6302,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6328,23 +6331,23 @@
         <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6386,7 +6389,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6407,10 +6410,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6421,10 +6424,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6447,16 +6450,16 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6506,7 +6509,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6527,10 +6530,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6541,10 +6544,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6570,21 +6573,21 @@
         <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>83</v>
@@ -6661,7 +6664,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>258</v>
@@ -6687,7 +6690,7 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>259</v>
@@ -6781,7 +6784,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>266</v>
@@ -6903,7 +6906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>276</v>
@@ -6929,7 +6932,7 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>277</v>
@@ -7025,13 +7028,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>188</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>83</v>
@@ -7053,19 +7056,19 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -7094,7 +7097,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -7136,10 +7139,10 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
@@ -7147,10 +7150,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7173,13 +7176,13 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7230,7 +7233,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7254,7 +7257,7 @@
         <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7265,10 +7268,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7297,7 +7300,7 @@
         <v>140</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>142</v>
@@ -7338,19 +7341,19 @@
         <v>83</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7374,7 +7377,7 @@
         <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7385,10 +7388,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7411,19 +7414,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7472,7 +7475,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7493,10 +7496,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7507,10 +7510,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7533,13 +7536,13 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7590,7 +7593,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7614,7 +7617,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7625,10 +7628,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7657,7 +7660,7 @@
         <v>140</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>142</v>
@@ -7698,19 +7701,19 @@
         <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7734,7 +7737,7 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7745,10 +7748,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7774,23 +7777,23 @@
         <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>83</v>
@@ -7832,7 +7835,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7853,10 +7856,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7867,10 +7870,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7893,16 +7896,16 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7952,7 +7955,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7973,10 +7976,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7987,10 +7990,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8016,14 +8019,14 @@
         <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8107,7 +8110,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>258</v>
@@ -8133,7 +8136,7 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>259</v>
@@ -8227,7 +8230,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>266</v>
@@ -8349,7 +8352,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>276</v>
@@ -8375,7 +8378,7 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>277</v>
@@ -8471,14 +8474,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8497,19 +8500,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8534,13 +8537,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8558,7 +8561,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>93</v>
@@ -8573,30 +8576,30 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8619,13 +8622,13 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8676,7 +8679,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8700,7 +8703,7 @@
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8711,10 +8714,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8743,7 +8746,7 @@
         <v>140</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>142</v>
@@ -8784,19 +8787,19 @@
         <v>83</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8820,7 +8823,7 @@
         <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8831,10 +8834,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8857,19 +8860,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8906,17 +8909,17 @@
         <v>83</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8937,10 +8940,10 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8951,13 +8954,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>83</v>
@@ -8979,19 +8982,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -9020,7 +9023,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -9038,7 +9041,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9059,10 +9062,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9073,10 +9076,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9099,13 +9102,13 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9156,7 +9159,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9180,7 +9183,7 @@
         <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -9191,10 +9194,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9223,7 +9226,7 @@
         <v>140</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>142</v>
@@ -9264,19 +9267,19 @@
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9300,7 +9303,7 @@
         <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9311,10 +9314,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9340,23 +9343,23 @@
         <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>83</v>
@@ -9398,7 +9401,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9419,10 +9422,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9433,10 +9436,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9459,16 +9462,16 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9518,7 +9521,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9539,10 +9542,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9553,10 +9556,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9582,14 +9585,14 @@
         <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9673,10 +9676,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9699,7 +9702,7 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>259</v>
@@ -9793,10 +9796,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9915,13 +9918,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>83</v>
@@ -9943,19 +9946,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -9984,7 +9987,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>83</v>
@@ -10002,7 +10005,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10023,10 +10026,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10037,10 +10040,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10063,13 +10066,13 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10120,7 +10123,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10144,7 +10147,7 @@
         <v>83</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -10155,10 +10158,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10187,7 +10190,7 @@
         <v>140</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>142</v>
@@ -10228,19 +10231,19 @@
         <v>83</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10264,7 +10267,7 @@
         <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10275,10 +10278,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10304,23 +10307,23 @@
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>83</v>
@@ -10362,7 +10365,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10383,10 +10386,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10397,10 +10400,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10423,16 +10426,16 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10482,7 +10485,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10503,10 +10506,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10517,10 +10520,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10546,14 +10549,14 @@
         <v>113</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10637,10 +10640,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10663,7 +10666,7 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>259</v>
@@ -10757,10 +10760,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10879,13 +10882,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>83</v>
@@ -10907,19 +10910,19 @@
         <v>94</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10948,7 +10951,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>83</v>
@@ -10966,7 +10969,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10987,10 +10990,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -11001,10 +11004,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11027,13 +11030,13 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11084,7 +11087,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11108,7 +11111,7 @@
         <v>83</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11119,10 +11122,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11151,7 +11154,7 @@
         <v>140</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>142</v>
@@ -11192,19 +11195,19 @@
         <v>83</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11228,7 +11231,7 @@
         <v>83</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11239,10 +11242,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11268,23 +11271,23 @@
         <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>83</v>
@@ -11326,7 +11329,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11347,10 +11350,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11361,10 +11364,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11387,16 +11390,16 @@
         <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11446,7 +11449,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11467,10 +11470,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11481,10 +11484,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11510,14 +11513,14 @@
         <v>113</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11601,10 +11604,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11627,7 +11630,7 @@
         <v>94</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>259</v>
@@ -11721,10 +11724,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11843,10 +11846,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11869,7 +11872,7 @@
         <v>94</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>277</v>
@@ -11965,10 +11968,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11991,19 +11994,19 @@
         <v>94</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12052,7 +12055,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12067,19 +12070,19 @@
         <v>105</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>83</v>
@@ -12087,10 +12090,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12113,16 +12116,16 @@
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12172,7 +12175,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12193,13 +12196,13 @@
         <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>83</v>
@@ -12207,14 +12210,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12233,19 +12236,19 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>83</v>
@@ -12294,7 +12297,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12309,19 +12312,19 @@
         <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>83</v>
@@ -12329,14 +12332,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12355,19 +12358,19 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -12416,7 +12419,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12431,19 +12434,19 @@
         <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>83</v>
@@ -12451,10 +12454,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12477,16 +12480,16 @@
         <v>94</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12536,7 +12539,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12557,13 +12560,13 @@
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>83</v>
@@ -12571,10 +12574,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12597,19 +12600,19 @@
         <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>83</v>
@@ -12658,7 +12661,7 @@
         <v>83</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12673,19 +12676,19 @@
         <v>105</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>83</v>
@@ -12693,10 +12696,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12719,19 +12722,19 @@
         <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>83</v>
@@ -12780,7 +12783,7 @@
         <v>83</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12789,7 +12792,7 @@
         <v>93</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>105</v>
@@ -12798,27 +12801,27 @@
         <v>83</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12841,19 +12844,19 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -12878,13 +12881,13 @@
         <v>83</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -12902,7 +12905,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12911,7 +12914,7 @@
         <v>93</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>105</v>
@@ -12926,7 +12929,7 @@
         <v>136</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -12937,14 +12940,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12963,19 +12966,19 @@
         <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13000,13 +13003,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13024,7 +13027,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13042,27 +13045,27 @@
         <v>83</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13085,19 +13088,19 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13146,7 +13149,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13167,10 +13170,10 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13181,10 +13184,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13207,16 +13210,16 @@
         <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13242,13 +13245,13 @@
         <v>83</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>83</v>
@@ -13266,7 +13269,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13284,27 +13287,27 @@
         <v>83</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13327,19 +13330,19 @@
         <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>83</v>
@@ -13364,13 +13367,13 @@
         <v>83</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>83</v>
@@ -13388,7 +13391,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13409,10 +13412,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13423,10 +13426,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13449,16 +13452,16 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13508,7 +13511,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13526,27 +13529,27 @@
         <v>83</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13569,16 +13572,16 @@
         <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13628,7 +13631,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13646,27 +13649,27 @@
         <v>83</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13689,19 +13692,19 @@
         <v>83</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13750,7 +13753,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13762,7 +13765,7 @@
         <v>83</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>83</v>
@@ -13771,10 +13774,10 @@
         <v>83</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
@@ -13785,10 +13788,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13811,13 +13814,13 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13868,7 +13871,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13892,7 +13895,7 @@
         <v>83</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -13903,10 +13906,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13935,7 +13938,7 @@
         <v>140</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>142</v>
@@ -13988,7 +13991,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14012,7 +14015,7 @@
         <v>83</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
@@ -14023,14 +14026,14 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14052,10 +14055,10 @@
         <v>139</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>142</v>
@@ -14110,7 +14113,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14145,10 +14148,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14171,13 +14174,13 @@
         <v>83</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14228,7 +14231,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14237,7 +14240,7 @@
         <v>93</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14249,10 +14252,10 @@
         <v>83</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
@@ -14263,10 +14266,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14289,13 +14292,13 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14346,7 +14349,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14355,7 +14358,7 @@
         <v>93</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>105</v>
@@ -14367,10 +14370,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14381,10 +14384,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14407,19 +14410,19 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>83</v>
@@ -14447,10 +14450,10 @@
         <v>117</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>83</v>
@@ -14468,7 +14471,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14486,13 +14489,13 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
@@ -14503,10 +14506,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14529,19 +14532,19 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>83</v>
@@ -14566,13 +14569,13 @@
         <v>83</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>83</v>
@@ -14590,7 +14593,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14608,13 +14611,13 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
@@ -14625,10 +14628,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14651,17 +14654,17 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14710,7 +14713,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14734,7 +14737,7 @@
         <v>83</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14745,10 +14748,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14771,13 +14774,13 @@
         <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14828,7 +14831,7 @@
         <v>83</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14849,10 +14852,10 @@
         <v>83</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>83</v>
@@ -14863,10 +14866,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14889,16 +14892,16 @@
         <v>94</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14948,7 +14951,7 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
@@ -14969,10 +14972,10 @@
         <v>83</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>83</v>
@@ -14983,10 +14986,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15009,16 +15012,16 @@
         <v>94</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15068,7 +15071,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15089,10 +15092,10 @@
         <v>83</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>83</v>
@@ -15103,10 +15106,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15129,19 +15132,19 @@
         <v>94</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>83</v>
@@ -15190,7 +15193,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15211,10 +15214,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15225,10 +15228,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15251,13 +15254,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15308,7 +15311,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15332,7 +15335,7 @@
         <v>83</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15343,10 +15346,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15375,7 +15378,7 @@
         <v>140</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>142</v>
@@ -15428,7 +15431,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15452,7 +15455,7 @@
         <v>83</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15463,14 +15466,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15492,10 +15495,10 @@
         <v>139</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>142</v>
@@ -15550,7 +15553,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15585,10 +15588,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15611,19 +15614,19 @@
         <v>94</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15648,13 +15651,13 @@
         <v>83</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>83</v>
@@ -15672,7 +15675,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>93</v>
@@ -15690,16 +15693,16 @@
         <v>83</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>83</v>
@@ -15707,10 +15710,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15733,19 +15736,19 @@
         <v>94</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>83</v>
@@ -15794,7 +15797,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15812,27 +15815,27 @@
         <v>83</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15855,19 +15858,19 @@
         <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>83</v>
@@ -15892,13 +15895,13 @@
         <v>83</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>83</v>
@@ -15916,7 +15919,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -15925,7 +15928,7 @@
         <v>93</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>105</v>
@@ -15940,7 +15943,7 @@
         <v>136</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -15951,14 +15954,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15977,19 +15980,19 @@
         <v>83</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -16014,13 +16017,13 @@
         <v>83</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>83</v>
@@ -16038,7 +16041,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16056,27 +16059,27 @@
         <v>83</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16102,16 +16105,16 @@
         <v>84</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16160,7 +16163,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16181,10 +16184,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -929,7 +929,7 @@
     <t>Observation.category:microbiology.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.dummy.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.category:microbiology.coding.version</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>すべてのObservation（検査測定や観察事実）の共通部分のプロファイル</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2296,19 +2300,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -2319,10 +2323,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2333,7 +2337,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2342,19 +2346,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2404,13 +2408,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2439,10 +2443,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2453,7 +2457,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2462,16 +2466,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2522,19 +2526,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2557,10 +2561,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2571,28 +2575,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2642,19 +2646,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2677,10 +2681,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2691,7 +2695,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2703,16 +2707,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2738,13 +2742,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2762,19 +2766,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2797,21 +2801,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2823,16 +2827,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2882,19 +2886,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2906,7 +2910,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2917,14 +2921,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2943,16 +2947,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3002,7 +3006,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -3026,7 +3030,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -3037,14 +3041,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3063,16 +3067,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3122,7 +3126,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3134,7 +3138,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3146,7 +3150,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -3157,14 +3161,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3177,25 +3181,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3244,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3256,7 +3260,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3268,7 +3272,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -3279,10 +3283,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3302,20 +3306,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3364,7 +3368,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3376,22 +3380,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3399,14 +3403,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3422,22 +3426,22 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3486,7 +3490,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3498,19 +3502,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3521,14 +3525,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3544,19 +3548,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3606,7 +3610,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3618,19 +3622,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3641,10 +3645,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3652,34 +3656,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3704,13 +3708,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3728,34 +3732,34 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3763,10 +3767,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3774,7 +3778,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3789,19 +3793,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3826,27 +3830,27 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3858,7 +3862,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3870,10 +3874,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3881,23 +3885,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3909,19 +3913,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3946,11 +3950,11 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3968,7 +3972,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3980,7 +3984,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3992,10 +3996,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -4003,10 +4007,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4017,7 +4021,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -4029,13 +4033,13 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4086,13 +4090,13 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
@@ -4110,7 +4114,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -4121,14 +4125,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4147,16 +4151,16 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4194,19 +4198,19 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4218,7 +4222,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -4230,7 +4234,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4241,10 +4245,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4264,22 +4268,22 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4328,7 +4332,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4340,7 +4344,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4349,10 +4353,10 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4363,10 +4367,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4377,7 +4381,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -4389,13 +4393,13 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4446,13 +4450,13 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
@@ -4470,7 +4474,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4481,14 +4485,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4507,16 +4511,16 @@
         <v>41</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4554,19 +4558,19 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4578,7 +4582,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4590,7 +4594,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4601,10 +4605,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4612,10 +4616,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4624,29 +4628,29 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>41</v>
@@ -4688,19 +4692,19 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -4709,10 +4713,10 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4723,10 +4727,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4737,7 +4741,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -4746,19 +4750,19 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4808,19 +4812,19 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4829,10 +4833,10 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4843,10 +4847,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4857,7 +4861,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4866,27 +4870,27 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>41</v>
@@ -4928,19 +4932,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -4949,10 +4953,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4963,10 +4967,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4977,7 +4981,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4986,20 +4990,20 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -5048,19 +5052,19 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -5069,10 +5073,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -5083,10 +5087,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5097,7 +5101,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -5106,22 +5110,22 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5170,19 +5174,19 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -5191,10 +5195,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5205,10 +5209,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5219,7 +5223,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -5228,22 +5232,22 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5292,19 +5296,19 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -5313,10 +5317,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5327,23 +5331,23 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5355,19 +5359,19 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5392,11 +5396,11 @@
         <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5414,7 +5418,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5426,7 +5430,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5438,10 +5442,10 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>41</v>
@@ -5449,10 +5453,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5463,7 +5467,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -5475,13 +5479,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5532,13 +5536,13 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
@@ -5556,7 +5560,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5567,14 +5571,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5593,16 +5597,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5640,19 +5644,19 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5664,7 +5668,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -5676,7 +5680,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5687,10 +5691,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5710,22 +5714,22 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5774,7 +5778,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5786,7 +5790,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5795,10 +5799,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5809,10 +5813,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5823,7 +5827,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5835,13 +5839,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5892,13 +5896,13 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
@@ -5916,7 +5920,7 @@
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5927,14 +5931,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5953,16 +5957,16 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6000,19 +6004,19 @@
         <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -6024,7 +6028,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -6036,7 +6040,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -6047,10 +6051,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6058,10 +6062,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -6070,29 +6074,29 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -6134,19 +6138,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -6155,10 +6159,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6169,10 +6173,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6183,7 +6187,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -6192,19 +6196,19 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6254,19 +6258,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -6275,10 +6279,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6289,10 +6293,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6303,7 +6307,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -6312,27 +6316,27 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>41</v>
@@ -6374,19 +6378,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6395,10 +6399,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6409,10 +6413,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6423,7 +6427,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6432,20 +6436,20 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6494,19 +6498,19 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -6515,10 +6519,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6529,10 +6533,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6543,7 +6547,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6552,22 +6556,22 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6616,19 +6620,19 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -6637,10 +6641,10 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6651,10 +6655,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6665,7 +6669,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -6674,22 +6678,22 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6738,19 +6742,19 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -6759,10 +6763,10 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6773,13 +6777,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>41</v>
@@ -6789,7 +6793,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6801,19 +6805,19 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6838,11 +6842,11 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6860,7 +6864,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6872,7 +6876,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6884,10 +6888,10 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>41</v>
@@ -6895,10 +6899,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6909,7 +6913,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6921,13 +6925,13 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6978,13 +6982,13 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
@@ -7002,7 +7006,7 @@
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -7013,14 +7017,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7039,16 +7043,16 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7086,19 +7090,19 @@
         <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7110,7 +7114,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -7122,7 +7126,7 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7133,10 +7137,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7156,22 +7160,22 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7220,7 +7224,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7232,7 +7236,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -7241,10 +7245,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7255,10 +7259,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7269,7 +7273,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -7281,13 +7285,13 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7338,13 +7342,13 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
@@ -7362,7 +7366,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7373,14 +7377,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7399,16 +7403,16 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7446,19 +7450,19 @@
         <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7470,7 +7474,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -7482,7 +7486,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7493,10 +7497,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7504,10 +7508,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -7516,29 +7520,29 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>41</v>
@@ -7580,19 +7584,19 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -7601,10 +7605,10 @@
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7615,10 +7619,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7629,7 +7633,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -7638,19 +7642,19 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7700,19 +7704,19 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -7721,10 +7725,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7735,10 +7739,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7749,7 +7753,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7758,20 +7762,20 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7820,19 +7824,19 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
@@ -7841,10 +7845,10 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7855,10 +7859,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7869,7 +7873,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7878,20 +7882,20 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7940,19 +7944,19 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
@@ -7961,10 +7965,10 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7975,10 +7979,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7989,7 +7993,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7998,22 +8002,22 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -8062,19 +8066,19 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -8083,10 +8087,10 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8097,10 +8101,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8111,7 +8115,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -8120,22 +8124,22 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8184,19 +8188,19 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -8205,10 +8209,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8219,21 +8223,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -8242,22 +8246,22 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8282,13 +8286,13 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8306,45 +8310,45 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8355,7 +8359,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8367,13 +8371,13 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8424,13 +8428,13 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
@@ -8448,7 +8452,7 @@
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8459,14 +8463,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8485,16 +8489,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8532,19 +8536,19 @@
         <v>41</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8556,7 +8560,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8568,7 +8572,7 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8579,10 +8583,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8602,22 +8606,22 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8654,17 +8658,17 @@
         <v>41</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8676,7 +8680,7 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
@@ -8685,10 +8689,10 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8699,13 +8703,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
@@ -8715,7 +8719,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8724,22 +8728,22 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8764,11 +8768,11 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8786,7 +8790,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8798,7 +8802,7 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8807,10 +8811,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8821,10 +8825,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8835,7 +8839,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8847,13 +8851,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8904,13 +8908,13 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
@@ -8928,7 +8932,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8939,14 +8943,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8965,16 +8969,16 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9012,19 +9016,19 @@
         <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -9036,7 +9040,7 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
@@ -9048,7 +9052,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9059,10 +9063,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9070,10 +9074,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -9082,29 +9086,29 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -9146,19 +9150,19 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -9167,10 +9171,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9181,10 +9185,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9195,7 +9199,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9204,19 +9208,19 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9266,19 +9270,19 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
@@ -9287,10 +9291,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9301,10 +9305,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9315,7 +9319,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9324,20 +9328,20 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9386,19 +9390,19 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -9407,10 +9411,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9421,10 +9425,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9435,7 +9439,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9444,20 +9448,20 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9506,19 +9510,19 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
@@ -9527,10 +9531,10 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9541,10 +9545,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9555,7 +9559,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>41</v>
@@ -9564,22 +9568,22 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9628,19 +9632,19 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
@@ -9649,10 +9653,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9663,13 +9667,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9679,7 +9683,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -9688,22 +9692,22 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9728,11 +9732,11 @@
         <v>41</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9750,7 +9754,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9762,7 +9766,7 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9771,10 +9775,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9785,10 +9789,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9799,7 +9803,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9811,13 +9815,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9868,13 +9872,13 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
@@ -9892,7 +9896,7 @@
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9903,14 +9907,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9929,16 +9933,16 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9976,19 +9980,19 @@
         <v>41</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -10000,7 +10004,7 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
@@ -10012,7 +10016,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -10023,10 +10027,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10034,10 +10038,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -10046,29 +10050,29 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -10110,19 +10114,19 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -10131,10 +10135,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10145,10 +10149,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10159,7 +10163,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -10168,19 +10172,19 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10230,19 +10234,19 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
@@ -10251,10 +10255,10 @@
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10265,10 +10269,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10279,7 +10283,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -10288,20 +10292,20 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10350,19 +10354,19 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
@@ -10371,10 +10375,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10385,10 +10389,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10399,7 +10403,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10408,20 +10412,20 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10470,19 +10474,19 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10491,10 +10495,10 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10505,10 +10509,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10519,7 +10523,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -10528,22 +10532,22 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10592,19 +10596,19 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
@@ -10613,10 +10617,10 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10627,13 +10631,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>41</v>
@@ -10643,7 +10647,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10652,22 +10656,22 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10692,11 +10696,11 @@
         <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10714,7 +10718,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10726,7 +10730,7 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -10735,10 +10739,10 @@
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10749,10 +10753,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10763,7 +10767,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -10775,13 +10779,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10832,13 +10836,13 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>41</v>
@@ -10856,7 +10860,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10867,14 +10871,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10893,16 +10897,16 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10940,19 +10944,19 @@
         <v>41</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10964,7 +10968,7 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
@@ -10976,7 +10980,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10987,10 +10991,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10998,10 +11002,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -11010,29 +11014,29 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>41</v>
@@ -11074,19 +11078,19 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
@@ -11095,10 +11099,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -11109,10 +11113,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11123,7 +11127,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -11132,19 +11136,19 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11194,19 +11198,19 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -11215,10 +11219,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11229,10 +11233,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11243,7 +11247,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -11252,20 +11256,20 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>41</v>
@@ -11314,19 +11318,19 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>41</v>
@@ -11335,10 +11339,10 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11349,10 +11353,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11363,7 +11367,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -11372,20 +11376,20 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11434,19 +11438,19 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
@@ -11455,10 +11459,10 @@
         <v>41</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11469,10 +11473,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11483,7 +11487,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -11492,22 +11496,22 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11556,19 +11560,19 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>41</v>
@@ -11577,10 +11581,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11591,10 +11595,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11605,7 +11609,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>41</v>
@@ -11614,22 +11618,22 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11678,19 +11682,19 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
@@ -11699,10 +11703,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11713,10 +11717,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11724,10 +11728,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -11736,22 +11740,22 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11800,34 +11804,34 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>41</v>
@@ -11835,10 +11839,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11858,19 +11862,19 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11920,7 +11924,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11932,7 +11936,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11941,13 +11945,13 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>41</v>
@@ -11955,21 +11959,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -11978,22 +11982,22 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -12042,34 +12046,34 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -12077,21 +12081,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>41</v>
@@ -12100,22 +12104,22 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -12164,34 +12168,34 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>41</v>
@@ -12199,10 +12203,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12213,7 +12217,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
@@ -12222,19 +12226,19 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12284,19 +12288,19 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
@@ -12305,13 +12309,13 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>41</v>
@@ -12319,10 +12323,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12342,22 +12346,22 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12406,7 +12410,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12418,22 +12422,22 @@
         <v>41</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>41</v>
@@ -12441,10 +12445,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12455,7 +12459,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -12464,22 +12468,22 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12528,45 +12532,45 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12577,7 +12581,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>41</v>
@@ -12589,19 +12593,19 @@
         <v>41</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12626,13 +12630,13 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12650,19 +12654,19 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>41</v>
@@ -12671,10 +12675,10 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12685,14 +12689,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12711,19 +12715,19 @@
         <v>41</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12748,13 +12752,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12772,7 +12776,7 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12784,33 +12788,33 @@
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12833,19 +12837,19 @@
         <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12894,7 +12898,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12906,7 +12910,7 @@
         <v>41</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>41</v>
@@ -12915,10 +12919,10 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>41</v>
@@ -12929,10 +12933,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12943,7 +12947,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12955,16 +12959,16 @@
         <v>41</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12990,13 +12994,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -13014,45 +13018,45 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13063,7 +13067,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>41</v>
@@ -13075,19 +13079,19 @@
         <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13112,13 +13116,13 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
@@ -13136,19 +13140,19 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>41</v>
@@ -13157,10 +13161,10 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>
@@ -13171,10 +13175,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13185,7 +13189,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>41</v>
@@ -13197,16 +13201,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13256,45 +13260,45 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13305,7 +13309,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -13317,16 +13321,16 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13376,45 +13380,45 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13437,19 +13441,19 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13498,7 +13502,7 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13510,7 +13514,7 @@
         <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>41</v>
@@ -13519,10 +13523,10 @@
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
@@ -13533,10 +13537,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13547,7 +13551,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>41</v>
@@ -13559,13 +13563,13 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13616,13 +13620,13 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>41</v>
@@ -13640,7 +13644,7 @@
         <v>41</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>41</v>
@@ -13651,14 +13655,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13677,16 +13681,16 @@
         <v>41</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13736,7 +13740,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13748,7 +13752,7 @@
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>41</v>
@@ -13760,7 +13764,7 @@
         <v>41</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>41</v>
@@ -13771,14 +13775,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13791,25 +13795,25 @@
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>41</v>
@@ -13858,7 +13862,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13870,7 +13874,7 @@
         <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>41</v>
@@ -13882,7 +13886,7 @@
         <v>41</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>41</v>
@@ -13893,10 +13897,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13907,7 +13911,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>41</v>
@@ -13919,13 +13923,13 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13976,19 +13980,19 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>41</v>
@@ -13997,10 +14001,10 @@
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
@@ -14011,10 +14015,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14025,7 +14029,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>41</v>
@@ -14037,13 +14041,13 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14094,19 +14098,19 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>41</v>
@@ -14115,10 +14119,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14129,10 +14133,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14143,7 +14147,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>41</v>
@@ -14155,19 +14159,19 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
@@ -14192,13 +14196,13 @@
         <v>41</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>41</v>
@@ -14216,31 +14220,31 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
@@ -14251,10 +14255,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14277,19 +14281,19 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>41</v>
@@ -14314,13 +14318,13 @@
         <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>41</v>
@@ -14338,7 +14342,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14350,19 +14354,19 @@
         <v>41</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
@@ -14373,10 +14377,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14387,7 +14391,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>41</v>
@@ -14399,17 +14403,17 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14458,19 +14462,19 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>41</v>
@@ -14482,7 +14486,7 @@
         <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14493,10 +14497,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14507,7 +14511,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>41</v>
@@ -14519,13 +14523,13 @@
         <v>41</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14576,19 +14580,19 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>41</v>
@@ -14597,10 +14601,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14611,10 +14615,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14634,19 +14638,19 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14696,7 +14700,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14708,7 +14712,7 @@
         <v>41</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>41</v>
@@ -14717,10 +14721,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14731,10 +14735,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14754,19 +14758,19 @@
         <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14816,7 +14820,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14828,7 +14832,7 @@
         <v>41</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>41</v>
@@ -14837,10 +14841,10 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14851,10 +14855,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14874,22 +14878,22 @@
         <v>41</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>41</v>
@@ -14938,7 +14942,7 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
@@ -14950,7 +14954,7 @@
         <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>41</v>
@@ -14959,10 +14963,10 @@
         <v>41</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -14973,10 +14977,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14987,7 +14991,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>41</v>
@@ -14999,13 +15003,13 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15056,13 +15060,13 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>41</v>
@@ -15080,7 +15084,7 @@
         <v>41</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>41</v>
@@ -15091,14 +15095,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15117,16 +15121,16 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15176,7 +15180,7 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
@@ -15188,7 +15192,7 @@
         <v>41</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>41</v>
@@ -15200,7 +15204,7 @@
         <v>41</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>41</v>
@@ -15211,14 +15215,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15231,25 +15235,25 @@
         <v>41</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>41</v>
@@ -15298,7 +15302,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15310,7 +15314,7 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>41</v>
@@ -15322,7 +15326,7 @@
         <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>41</v>
@@ -15333,10 +15337,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15344,10 +15348,10 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>41</v>
@@ -15356,22 +15360,22 @@
         <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>41</v>
@@ -15396,13 +15400,13 @@
         <v>41</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>41</v>
@@ -15420,34 +15424,34 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>41</v>
@@ -15455,10 +15459,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15469,7 +15473,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>41</v>
@@ -15478,22 +15482,22 @@
         <v>41</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>41</v>
@@ -15542,45 +15546,45 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15591,7 +15595,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>41</v>
@@ -15603,19 +15607,19 @@
         <v>41</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>41</v>
@@ -15640,13 +15644,13 @@
         <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>41</v>
@@ -15664,19 +15668,19 @@
         <v>41</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>41</v>
@@ -15685,10 +15689,10 @@
         <v>41</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15699,14 +15703,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15725,19 +15729,19 @@
         <v>41</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>41</v>
@@ -15762,13 +15766,13 @@
         <v>41</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>41</v>
@@ -15786,7 +15790,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15798,33 +15802,33 @@
         <v>41</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15850,16 +15854,16 @@
         <v>42</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15908,7 +15912,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15920,7 +15924,7 @@
         <v>41</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>41</v>
@@ -15929,10 +15933,10 @@
         <v>41</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="579">
   <si>
     <t>Property</t>
   </si>
@@ -398,8 +398,7 @@
     <t>このObservationが実施されることになった依頼や計画／提案に関する情報、オーダ情報（ServiceRequest）</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP Core仕様】オーダ情報（ServiceRequestリソース）</t>
+    <t>【JP Core仕様】オーダ情報（ServiceRequestリソース）</t>
   </si>
   <si>
     <t>イベントの許可を追跡し、提案/勧告が行われたかどうかを追跡することができます。 / Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -428,8 +427,7 @@
     <t>このObservationが親イベントの一部を成す要素であるときこの親イベントに関する情報、未使用</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
-ObservationをEncounterにencounter要素を使ってリンクする。もうひとつ別のObservationを参照することについては、以降にあるt [Notes](observation.html#obsgrouping)　をガイダンスとして参照のこと。</t>
+    <t>ObservationをEncounterにencounter要素を使ってリンクする。もうひとつ別のObservationを参照することについては、以降にあるt [Notes](observation.html#obsgrouping)　をガイダンスとして参照のこと。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -450,8 +448,7 @@
     <t>結果の状態</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
-このリソースは現在有効でないというマークをするコードを含んでいるため、この要素はモディファイアー（修飾的要素）として位置づけられている。</t>
+    <t>このリソースは現在有効でないというマークをするコードを含んでいるため、この要素はモディファイアー（修飾的要素）として位置づけられている。</t>
   </si>
   <si>
     <t>個々の結果のステータスを追跡する必要があります。レポート全体が最終決定される前に、いくつかの結果が確定します。 / Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
@@ -529,8 +526,7 @@
     <t>このObservationに関する分類（JP_SimpleObservationCategory_VS）、必須項目</t>
   </si>
   <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.  
-必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
+    <t>必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
   <si>
     <t>Observation.category:laboratory.id</t>
@@ -822,6 +818,9 @@
     <t>Observation.category:microbiology.coding.display</t>
   </si>
   <si>
+    <t>Microbiology studies (set)</t>
+  </si>
+  <si>
     <t>Observation.category:microbiology.coding.userSelected</t>
   </si>
   <si>
@@ -889,8 +888,7 @@
     <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-observationの意味を正しく理解するには、すべてのcode-valueペアと、さらに存在する場合にはcomponent.code-component.valueのペアが、考慮される必要がある。</t>
+    <t>observationの意味を正しく理解するには、すべてのcode-valueペアと、さらに存在する場合にはcomponent.code-component.valueのペアが、考慮される必要がある。</t>
   </si>
   <si>
     <t>どのような観察が行われているかを知ることは、観察を理解するために不可欠です。 / Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -1106,8 +1104,7 @@
     <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-この要素は1..1のcardinalityになるはずと考えられる。この要素が欠損値になる唯一の状況は、対象患者が不明なデバイスによって観察が行われるケースである。この場合、観察は何らかのコンテキスト/チャネルマッチング技術を介して患者にマッチングされる必要があり、患者にマッチングされれば、その時点で本要素を更新する必要がある。</t>
+    <t>この要素は1..1のcardinalityになるはずと考えられる。この要素が欠損値になる唯一の状況は、対象患者が不明なデバイスによって観察が行われるケースである。この場合、観察は何らかのコンテキスト/チャネルマッチング技術を介して患者にマッチングされる必要があり、患者にマッチングされれば、その時点で本要素を更新する必要がある。</t>
   </si>
   <si>
     <t>あなたが彼らが誰または何をしているのかわからない場合、観察には価値がありません。 / Observations have no value if you don't know who or what they're about.</t>
@@ -1138,8 +1135,7 @@
     <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+    <t>T通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1162,8 +1158,7 @@
     <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
+    <t>通常、イベントが発生したEncounterであるが、一部のイベントは、Encounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
   </si>
   <si>
     <t>一部の観察では、観察と特定のEncounterの間のリンクを知ることが重要かもしれません。 / For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -1226,8 +1221,7 @@
     <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
-レビューと検証を必要としないobservationの場合、リソース自体の[`lastUpdated`]（resource-definitions.html＃Meta.lastUpdated）日時と同じになる場合がある。特定の更新のレビューと検証が必要なobservationの場合、新しいバージョンを再度レビューして検証する必要がないような臨床的に重要でない更新がなされたために、リソース自体の「lastUpdated」時間はこれと異なる場合がある。</t>
+    <t>レビューと検証を必要としないobservationの場合、リソース自体の[`lastUpdated`]（resource-definitions.html＃Meta.lastUpdated）日時と同じになる場合がある。特定の更新のレビューと検証が必要なobservationの場合、新しいバージョンを再度レビューして検証する必要がないような臨床的に重要でない更新がなされたために、リソース自体の「lastUpdated」時間はこれと異なる場合がある。</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1252,8 +1246,7 @@
     <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>観察にある程度の自信を与える可能性があり、また、フォローアップの質問をどこに向けるべきかを示します。 / May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -1317,9 +1310,7 @@
     <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.
-ヌル値または例外値は、FHIRオブザベーションで2つの方法で表すことができる。 1つの方法は、それらを値セットに含めて、値の例外を表す方法である。たとえば、血清学的検査の測定値は、「検出された」、「検出されなかった」、「決定的でない」、または「検体が不十分」である可能性がある。別の方法は、実際の観測にvalue要素を使用し、明示的なdataAbsentReason要素を使用して例外的な値を記録することである。たとえば、測定が完了しなかった場合、dataAbsentReasonコード「error」を使用できる。この場合には、観測値は、報告する値がある場合にのみ報告される可能性があることに注意する必要がある。たとえば、差分セルカウント値は&gt; 0の場合にのみ報告される場合がある。これらのオプションのため、nullまたは例外値の一般的な観測値を解釈するにはユースケースの合意が必要である。</t>
+    <t>ヌル値または例外値は、FHIRオブザベーションで2つの方法で表すことができる。 1つの方法は、それらを値セットに含めて、値の例外を表す方法である。たとえば、血清学的検査の測定値は、「検出された」、「検出されなかった」、「決定的でない」、または「検体が不十分」である可能性がある。別の方法は、実際の観測にvalue要素を使用し、明示的なdataAbsentReason要素を使用して例外的な値を記録することである。たとえば、測定が完了しなかった場合、dataAbsentReasonコード「error」を使用できる。この場合には、観測値は、報告する値がある場合にのみ報告される可能性があることに注意する必要がある。たとえば、差分セルカウント値は&gt; 0の場合にのみ報告される場合がある。これらのオプションのため、nullまたは例外値の一般的な観測値を解釈するにはユースケースの合意が必要である。</t>
   </si>
   <si>
     <t>多くの結果には、測定で例外的な値を処理する必要があります。 / For many results it is necessary to handle exceptional values in measurements.</t>
@@ -1357,8 +1348,7 @@
     <t>【JP Core仕様】薬剤感受性結果（判定）を表現する場合に使用する想定</t>
   </si>
   <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.
-一部の結果、特に数値結果については、結果の意義を完全に理解するためには解釈コードが必要である。</t>
+    <t>一部の結果、特に数値結果については、結果の意義を完全に理解するためには解釈コードが必要である。</t>
   </si>
   <si>
     <t>観測の解釈を識別するコード。 / Codes identifying interpretations of observations.</t>
@@ -1392,8 +1382,7 @@
     <t>このObservationに関するコメント</t>
   </si>
   <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
-観察（結果）に関する一般的な記述、重要な、予期しない、または信頼できない結果値に関する記述、またはその解釈に関連する場合はそのソースに関する情報が含まれる場合がある。</t>
+    <t>観察（結果）に関する一般的な記述、重要な、予期しない、または信頼できない結果値に関する記述、またはその解釈に関連する場合はそのソースに関する情報が含まれる場合がある。</t>
   </si>
   <si>
     <t>Need to be able to provide free text additional information.
@@ -1472,8 +1461,7 @@
     <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
-`Observation.code`にあるコードで暗黙的に示されない場合にのみ使用する必要がある。検体自体の観察は行われない。観察（観測、検査）対象者に対して実施されるが、多くの場合には対象者から得られた検体に対して実施される。検体が奥の場合に関わるが、それらは常に追跡され、明示的に報告されるとは限らないことに注意すること。またobservationリソースは、検体を明示的に記述するような状況下（診断レポートなど）で使用される場合があることに注意。</t>
+    <t>`Observation.code`にあるコードで暗黙的に示されない場合にのみ使用する必要がある。検体自体の観察は行われない。観察（観測、検査）対象者に対して実施されるが、多くの場合には対象者から得られた検体に対して実施される。検体が奥の場合に関わるが、それらは常に追跡され、明示的に報告されるとは限らないことに注意すること。またobservationリソースは、検体を明示的に記述するような状況下（診断レポートなど）で使用される場合があることに注意。</t>
   </si>
   <si>
     <t>&lt; 123038009 |Specimen|</t>
@@ -1501,8 +1489,7 @@
     <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
-    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
-これは、結果の送信に関与するデバイス（ゲートウェイなど）を表すことを意図したものではない。そのようなデバイスは、必要に応じてProvenanceリソースを使用して文書化する。</t>
+    <t>これは、結果の送信に関与するデバイス（ゲートウェイなど）を表すことを意図したものではない。そのようなデバイスは、必要に応じてProvenanceリソースを使用して文書化する。</t>
   </si>
   <si>
     <t>&lt; 49062001 |Device|</t>
@@ -1530,12 +1517,10 @@
     <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
   </si>
   <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
-通常の範囲または推奨範囲と比較して値を解釈する方法に関するガイダンス。複数の参照範囲は「OR」として解釈される。つまり、2つの異なるターゲット母集団を表すために、2つの `referenceRange`要素が使用される。</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.
-どの値が「正常」と見なされるかを知ることは、特定の結果の意義を評価するのに役立つ。さまざまなコンテキストに対応するため複数の参照範囲を提供できる必要がある。</t>
+    <t>通常の範囲または推奨範囲と比較して値を解釈する方法に関するガイダンス。複数の参照範囲は「OR」として解釈される。つまり、2つの異なるターゲット母集団を表すために、2つの `referenceRange`要素が使用される。</t>
+  </si>
+  <si>
+    <t>どの値が「正常」と見なされるかを知ることは、特定の結果の意義を評価するのに役立つ。さまざまなコンテキストに対応するため複数の参照範囲を提供できる必要がある。</t>
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1705,8 +1690,7 @@
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-この要素を使用する場合、observationには通常、値または関連するリソースのセットのいじれかを含む。その両方を含む場合もある。複数のobservationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照せよ。システムは、[QuestionnaireResponse]（questionnaireresponse.html）からの結果を計算して最終スコアにし、そのスコアをobservationとして表す場合があることに注意。</t>
+    <t>この要素を使用する場合、observationには通常、値または関連するリソースのセットのいじれかを含む。その両方を含む場合もある。複数のobservationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照せよ。システムは、[QuestionnaireResponse]（questionnaireresponse.html）からの結果を計算して最終スコアにし、そのスコアをobservationとして表す場合があることに注意。</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1728,8 +1712,7 @@
     <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-この要素にリストされているすべての参照の選択肢は、派生値の元のデータなる可能性のある臨床観察やその他の測定値を表すことができる。最も一般的な参照先は、別のobservationである。observationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照すること。</t>
+    <t>この要素にリストされているすべての参照の選択肢は、派生値の元のデータなる可能性のある臨床観察やその他の測定値を表すことができる。最も一般的な参照先は、別のobservationである。observationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照すること。</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1744,12 +1727,10 @@
     <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
-複数のObservation をグループに一緒にまとめる方法については、以下の[Notes]（observation.html＃notes）を参照すること。</t>
-  </si>
-  <si>
-    <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.
-コンポーネントobservation は プライマリobservation としてのobservation リソースの中で同じ属性を共有し、常に単一のobservation の一部として扱われる（つまりそれらは分離可能ではないん）。ただし、プライマリobservationのreference rangeはコンポーネント値に継承されないため、reference rangeは各コンポーネントobservation に適切であれば必要である。</t>
+    <t>複数のObservation をグループに一緒にまとめる方法については、以下の[Notes]（observation.html＃notes）を参照すること。</t>
+  </si>
+  <si>
+    <t>コンポーネントobservation は プライマリobservation としてのobservation リソースの中で同じ属性を共有し、常に単一のobservation の一部として扱われる（つまりそれらは分離可能ではないん）。ただし、プライマリobservationのreference rangeはコンポーネント値に継承されないため、reference rangeは各コンポーネントobservation に適切であれば必要である。</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -6459,7 +6440,7 @@
         <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>41</v>
@@ -6533,7 +6514,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>225</v>
@@ -6655,7 +6636,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>235</v>
@@ -6777,13 +6758,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>147</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>41</v>
@@ -6808,10 +6789,10 @@
         <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>162</v>
@@ -6846,7 +6827,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6899,7 +6880,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>164</v>
@@ -7017,7 +6998,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>171</v>
@@ -7137,7 +7118,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>177</v>
@@ -7259,7 +7240,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>187</v>
@@ -7377,7 +7358,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>189</v>
@@ -7497,7 +7478,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>191</v>
@@ -7542,7 +7523,7 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>41</v>
@@ -7619,7 +7600,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>201</v>
@@ -7739,7 +7720,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>209</v>
@@ -7859,7 +7840,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>217</v>
@@ -7979,7 +7960,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>225</v>
@@ -8101,7 +8082,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>235</v>
@@ -8223,14 +8204,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8252,16 +8233,16 @@
         <v>149</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8286,13 +8267,13 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8310,7 +8291,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>52</v>
@@ -8325,30 +8306,30 @@
         <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8463,10 +8444,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8583,10 +8564,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8612,13 +8593,13 @@
         <v>178</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>182</v>
@@ -8658,7 +8639,7 @@
         <v>41</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
@@ -8703,13 +8684,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
@@ -8734,13 +8715,13 @@
         <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>182</v>
@@ -8772,7 +8753,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8825,10 +8806,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8943,10 +8924,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9063,10 +9044,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9108,7 +9089,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -9185,10 +9166,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9305,10 +9286,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9425,10 +9406,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9545,10 +9526,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9667,13 +9648,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9698,13 +9679,13 @@
         <v>178</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>182</v>
@@ -9736,7 +9717,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9789,10 +9770,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9907,10 +9888,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10027,10 +10008,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10072,7 +10053,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -10149,10 +10130,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10269,10 +10250,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10389,10 +10370,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10509,10 +10490,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10631,13 +10612,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>41</v>
@@ -10662,13 +10643,13 @@
         <v>178</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>182</v>
@@ -10700,7 +10681,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10753,10 +10734,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10871,10 +10852,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10991,10 +10972,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11036,7 +11017,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>41</v>
@@ -11113,10 +11094,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11233,10 +11214,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11353,10 +11334,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11473,10 +11454,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11595,10 +11576,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11717,10 +11698,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11743,19 +11724,19 @@
         <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11804,7 +11785,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11819,19 +11800,19 @@
         <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>41</v>
@@ -11839,10 +11820,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11865,16 +11846,16 @@
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11924,7 +11905,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11945,13 +11926,13 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>41</v>
@@ -11959,14 +11940,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11985,19 +11966,19 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -12046,7 +12027,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -12061,19 +12042,19 @@
         <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -12081,14 +12062,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12107,19 +12088,19 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -12168,7 +12149,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12183,19 +12164,19 @@
         <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>41</v>
@@ -12203,10 +12184,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12229,16 +12210,16 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12288,7 +12269,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12309,13 +12290,13 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>41</v>
@@ -12323,10 +12304,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12349,19 +12330,19 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12410,7 +12391,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12425,19 +12406,19 @@
         <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>41</v>
@@ -12445,10 +12426,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12471,19 +12452,19 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12532,7 +12513,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12541,7 +12522,7 @@
         <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -12550,27 +12531,27 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12596,16 +12577,16 @@
         <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12630,13 +12611,13 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12654,7 +12635,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12663,7 +12644,7 @@
         <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>64</v>
@@ -12678,7 +12659,7 @@
         <v>95</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12689,14 +12670,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12718,16 +12699,16 @@
         <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12752,13 +12733,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12776,7 +12757,7 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12794,27 +12775,27 @@
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12837,19 +12818,19 @@
         <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12898,7 +12879,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12919,10 +12900,10 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>41</v>
@@ -12933,10 +12914,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12962,13 +12943,13 @@
         <v>149</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12994,13 +12975,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -13018,7 +12999,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -13036,27 +13017,27 @@
         <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13082,16 +13063,16 @@
         <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13116,13 +13097,13 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
@@ -13140,7 +13121,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -13161,10 +13142,10 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>
@@ -13175,10 +13156,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13201,16 +13182,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13260,7 +13241,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13278,27 +13259,27 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13321,16 +13302,16 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13380,7 +13361,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13398,27 +13379,27 @@
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13441,19 +13422,19 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13502,7 +13483,7 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13514,7 +13495,7 @@
         <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>41</v>
@@ -13523,10 +13504,10 @@
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
@@ -13537,10 +13518,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13655,10 +13636,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13775,14 +13756,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13804,10 +13785,10 @@
         <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>101</v>
@@ -13862,7 +13843,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13897,10 +13878,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13923,13 +13904,13 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13980,7 +13961,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13989,7 +13970,7 @@
         <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>64</v>
@@ -14001,10 +13982,10 @@
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
@@ -14015,10 +13996,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14041,13 +14022,13 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14098,7 +14079,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -14107,7 +14088,7 @@
         <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>64</v>
@@ -14119,10 +14100,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14133,10 +14114,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14162,16 +14143,16 @@
         <v>149</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
@@ -14199,10 +14180,10 @@
         <v>76</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>41</v>
@@ -14220,7 +14201,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -14238,13 +14219,13 @@
         <v>41</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
@@ -14255,10 +14236,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14284,16 +14265,16 @@
         <v>149</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>41</v>
@@ -14318,13 +14299,13 @@
         <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>41</v>
@@ -14342,7 +14323,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14360,13 +14341,13 @@
         <v>41</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
@@ -14377,10 +14358,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14403,17 +14384,17 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14462,7 +14443,7 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
@@ -14486,7 +14467,7 @@
         <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14497,10 +14478,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14526,10 +14507,10 @@
         <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14580,7 +14561,7 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14601,10 +14582,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14615,10 +14596,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14641,16 +14622,16 @@
         <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14700,7 +14681,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14721,10 +14702,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14735,10 +14716,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14761,16 +14742,16 @@
         <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14820,7 +14801,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14841,10 +14822,10 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14855,10 +14836,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14881,19 +14862,19 @@
         <v>53</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>41</v>
@@ -14942,7 +14923,7 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
@@ -14963,10 +14944,10 @@
         <v>41</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -14977,10 +14958,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15095,10 +15076,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15215,14 +15196,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15244,10 +15225,10 @@
         <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>101</v>
@@ -15302,7 +15283,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15337,10 +15318,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15366,16 +15347,16 @@
         <v>149</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>41</v>
@@ -15400,13 +15381,13 @@
         <v>41</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>41</v>
@@ -15424,7 +15405,7 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>52</v>
@@ -15442,16 +15423,16 @@
         <v>41</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>41</v>
@@ -15459,10 +15440,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15485,19 +15466,19 @@
         <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>41</v>
@@ -15546,7 +15527,7 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -15564,27 +15545,27 @@
         <v>41</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15610,16 +15591,16 @@
         <v>149</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>41</v>
@@ -15644,13 +15625,13 @@
         <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>41</v>
@@ -15668,7 +15649,7 @@
         <v>41</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
@@ -15677,7 +15658,7 @@
         <v>52</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>64</v>
@@ -15692,7 +15673,7 @@
         <v>95</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15703,14 +15684,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15732,16 +15713,16 @@
         <v>149</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>41</v>
@@ -15766,13 +15747,13 @@
         <v>41</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>41</v>
@@ -15790,7 +15771,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15808,27 +15789,27 @@
         <v>41</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15854,16 +15835,16 @@
         <v>42</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15912,7 +15893,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15933,10 +15914,10 @@
         <v>41</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -526,7 +526,7 @@
     <t>このObservationに関する分類（JP_SimpleObservationCategory_VS）、必須項目</t>
   </si>
   <si>
-    <t>必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
+    <t>階層的にカテゴリーを設定することで粒度のレベルを概念定義できる。</t>
   </si>
   <si>
     <t>Observation.category:laboratory.id</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -494,7 +494,7 @@
     <t>このObservationを分類するコード</t>
   </si>
   <si>
-    <t>【JP Core仕様】日本では適切なコード体系が存在しないため、独自のバリューセットを定義する
+    <t>【JP Core仕様】日本では適切なコード体系が存在しないため、独自のバリューセットを定義する  
 JP CoreとしてはsimpleObservationコード体系を必須とし、他のローカルコード等を使用する場合はCategory要素の2つ目以降に設定する</t>
   </si>
   <si>
@@ -930,7 +930,7 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>【JP Core仕様】[Slicing](http://hl7.org/fhir/R4/profiling.html#slicing)を使用して複数のコード体系に対応
+    <t>【JP Core仕様】[Slicing](http://hl7.org/fhir/R4/profiling.html#slicing)を使用して複数のコード体系に対応  
 基本方針としてカテゴリに応じた標準コードの使用を想定しているが、ローカルコードを使用してもよい</t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>同定菌名を表現する場合に使用するコード、JANIS菌名コードを利用</t>
   </si>
   <si>
-    <t>【JP Core仕様】同定菌名を表現する場合に使用する
+    <t>【JP Core仕様】同定菌名を表現する場合に使用する  
 NeXEHRSで使用を定める標準コードに準じて、JANIS菌名コードを採用する</t>
   </si>
   <si>
@@ -1014,7 +1014,7 @@
     <t>抗菌薬コードを表現する場合に使用するコード、JANIS抗菌薬コードを利用</t>
   </si>
   <si>
-    <t>【JP Core仕様】抗菌薬コードを表現する場合に使用する
+    <t>【JP Core仕様】抗菌薬コードを表現する場合に使用する  
 NeXEHRSで使用を定める標準コードに準じて、JANIS抗菌薬コードを採用する</t>
   </si>
   <si>
@@ -1057,7 +1057,7 @@
     <t>塗抹結果、培養・同定結果を表現する場合に使用するコード、JLAC10を利用</t>
   </si>
   <si>
-    <t>【JP Core仕様】塗抹結果、培養・同定結果を表現する場合に使用する
+    <t>【JP Core仕様】塗抹結果、培養・同定結果を表現する場合に使用する  
 JLAC10コードを採用する</t>
   </si>
   <si>
@@ -1277,9 +1277,9 @@
     <t>検査によって得られた値を格納する</t>
   </si>
   <si>
-    <t>【JP Core仕様】valueQuantity：同定検査の菌量（定量）、薬剤感受性結果（MIC値）を表現する場合に使用する想定
-valueCodeableConcept：同定検査の菌種を表現する場合に使用する想定
-valueString：塗抹結果、培養検査の週数・菌量を表現する場合に使用する想定</t>
+    <t>【JP Core仕様】valueQuantity：同定検査の菌量（定量）、薬剤感受性結果（MIC値）を表現する場合に使用する想定  
+valueCodeableConcept ： 同定検査の菌種を表現する場合に使用する想定  
+valueString ： 塗抹結果、培養検査の週数・菌量を表現する場合に使用する想定</t>
   </si>
   <si>
     <t>観測は値を持つように存在しますが、それが誤っている場合、または観測のグループを表す場合はそうではありません。 / An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1385,7 +1385,7 @@
     <t>観察（結果）に関する一般的な記述、重要な、予期しない、または信頼できない結果値に関する記述、またはその解釈に関連する場合はそのソースに関する情報が含まれる場合がある。</t>
   </si>
   <si>
-    <t>Need to be able to provide free text additional information.
+    <t>Need to be able to provide free text additional information.  
 フリーテキストの追加情報を提供できる必要がある。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="558">
   <si>
     <t>Property</t>
   </si>
@@ -442,9 +442,6 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>結果の状態【詳細参照】</t>
-  </si>
-  <si>
     <t>結果の状態</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationを分類するコード</t>
   </si>
   <si>
@@ -882,9 +876,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
@@ -944,9 +935,6 @@
     <t>infectious-agent</t>
   </si>
   <si>
-    <t>同定菌名を表現する場合に使用するコード、JANIS菌名コードを利用【詳細参照】</t>
-  </si>
-  <si>
     <t>同定菌名を表現する場合に使用するコード、JANIS菌名コードを利用</t>
   </si>
   <si>
@@ -1008,9 +996,6 @@
     <t>antimicrobial-drug</t>
   </si>
   <si>
-    <t>抗菌薬コードを表現する場合に使用するコード、JANIS抗菌薬コードを利用【詳細参照】</t>
-  </si>
-  <si>
     <t>抗菌薬コードを表現する場合に使用するコード、JANIS抗菌薬コードを利用</t>
   </si>
   <si>
@@ -1051,9 +1036,6 @@
     <t>jlac10</t>
   </si>
   <si>
-    <t>塗抹結果、培養・同定結果を表現する場合に使用するコード、JLAC10を利用【詳細参照】</t>
-  </si>
-  <si>
     <t>塗抹結果、培養・同定結果を表現する場合に使用するコード、JLAC10を利用</t>
   </si>
   <si>
@@ -1098,9 +1080,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
@@ -1129,9 +1108,6 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
@@ -1152,9 +1128,6 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
@@ -1215,9 +1188,6 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
-  </si>
-  <si>
     <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
@@ -1240,9 +1210,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
@@ -1269,9 +1236,6 @@
   <si>
     <t>Quantity
 CodeableConceptstring</t>
-  </si>
-  <si>
-    <t>検査によって得られた値を格納する【詳細参照】</t>
   </si>
   <si>
     <t>検査によって得られた値を格納する</t>
@@ -1304,9 +1268,6 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
@@ -1339,9 +1300,6 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常、High、low、 normal等、薬剤感受性結果（判定）を表現する場合に使用【詳細参照】</t>
-  </si>
-  <si>
     <t>高、低、正常、High、low、 normal等、薬剤感受性結果（判定）を表現する場合に使用</t>
   </si>
   <si>
@@ -1374,9 +1332,6 @@
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>このObservationに関するコメント【詳細参照】</t>
   </si>
   <si>
     <t>このObservationに関するコメント</t>
@@ -1455,9 +1410,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
@@ -1483,9 +1435,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
@@ -1509,9 +1458,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
   </si>
   <si>
     <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
@@ -1684,9 +1630,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
@@ -1706,9 +1649,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
@@ -1719,9 +1659,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
   </si>
   <si>
     <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
@@ -3658,13 +3595,13 @@
         <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3689,13 +3626,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3728,19 +3665,19 @@
         <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3748,10 +3685,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3759,7 +3696,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3774,19 +3711,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3815,23 +3752,23 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3855,10 +3792,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3866,13 +3803,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
@@ -3894,19 +3831,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3931,11 +3868,11 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3953,7 +3890,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3977,10 +3914,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3988,10 +3925,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4014,13 +3951,13 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4071,7 +4008,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -4095,7 +4032,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -4106,10 +4043,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4138,7 +4075,7 @@
         <v>99</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>101</v>
@@ -4179,19 +4116,19 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4215,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4226,10 +4163,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4252,19 +4189,19 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4313,7 +4250,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4334,10 +4271,10 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4348,10 +4285,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4374,13 +4311,13 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4431,7 +4368,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4455,7 +4392,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4466,10 +4403,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4498,7 +4435,7 @@
         <v>99</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>101</v>
@@ -4539,19 +4476,19 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4575,7 +4512,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4586,10 +4523,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4615,23 +4552,23 @@
         <v>66</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>41</v>
@@ -4673,7 +4610,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4694,10 +4631,10 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4708,10 +4645,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4734,16 +4671,16 @@
         <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4793,7 +4730,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4814,10 +4751,10 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4828,10 +4765,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4857,21 +4794,21 @@
         <v>72</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>41</v>
@@ -4913,7 +4850,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4934,10 +4871,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4948,10 +4885,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4974,17 +4911,17 @@
         <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -5033,7 +4970,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -5054,10 +4991,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -5068,10 +5005,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5094,19 +5031,19 @@
         <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5155,7 +5092,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5176,10 +5113,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5190,10 +5127,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5216,19 +5153,19 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5277,7 +5214,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5298,10 +5235,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5312,13 +5249,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>41</v>
@@ -5340,19 +5277,19 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5381,7 +5318,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5399,7 +5336,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5423,10 +5360,10 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>41</v>
@@ -5434,10 +5371,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5460,13 +5397,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5517,7 +5454,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5541,7 +5478,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5552,10 +5489,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5584,7 +5521,7 @@
         <v>99</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>101</v>
@@ -5625,19 +5562,19 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5661,7 +5598,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5672,10 +5609,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5698,19 +5635,19 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5759,7 +5696,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5780,10 +5717,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5794,10 +5731,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5820,13 +5757,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5877,7 +5814,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5901,7 +5838,7 @@
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5912,10 +5849,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5944,7 +5881,7 @@
         <v>99</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>101</v>
@@ -5985,19 +5922,19 @@
         <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -6021,7 +5958,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -6032,10 +5969,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6061,23 +5998,23 @@
         <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -6119,7 +6056,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -6140,10 +6077,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6154,10 +6091,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6180,16 +6117,16 @@
         <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6239,7 +6176,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6260,10 +6197,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6274,10 +6211,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6303,21 +6240,21 @@
         <v>72</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>41</v>
@@ -6359,7 +6296,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6380,10 +6317,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6394,10 +6331,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6420,17 +6357,17 @@
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6440,7 +6377,7 @@
         <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>41</v>
@@ -6479,7 +6416,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6500,10 +6437,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6514,10 +6451,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6540,19 +6477,19 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6601,7 +6538,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6622,10 +6559,10 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6636,10 +6573,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6662,19 +6599,19 @@
         <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6723,7 +6660,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6744,10 +6681,10 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6758,13 +6695,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>41</v>
@@ -6786,19 +6723,19 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6823,11 +6760,11 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6845,7 +6782,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6869,10 +6806,10 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>41</v>
@@ -6880,10 +6817,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6906,13 +6843,13 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6963,7 +6900,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6987,7 +6924,7 @@
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6998,10 +6935,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7030,7 +6967,7 @@
         <v>99</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>101</v>
@@ -7071,19 +7008,19 @@
         <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7107,7 +7044,7 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7118,10 +7055,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7144,19 +7081,19 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7205,7 +7142,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7226,10 +7163,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7240,10 +7177,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7266,13 +7203,13 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7323,7 +7260,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7347,7 +7284,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7358,10 +7295,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7390,7 +7327,7 @@
         <v>99</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>101</v>
@@ -7431,19 +7368,19 @@
         <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7467,7 +7404,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7478,10 +7415,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7507,23 +7444,23 @@
         <v>66</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>41</v>
@@ -7565,7 +7502,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7586,10 +7523,10 @@
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7600,10 +7537,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7626,16 +7563,16 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7685,7 +7622,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7706,10 +7643,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7720,10 +7657,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7749,14 +7686,14 @@
         <v>72</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7805,7 +7742,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7826,10 +7763,10 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7840,10 +7777,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7866,17 +7803,17 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7925,7 +7862,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7946,10 +7883,10 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7960,10 +7897,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7986,19 +7923,19 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -8047,7 +7984,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -8068,10 +8005,10 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8082,10 +8019,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8108,19 +8045,19 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8169,7 +8106,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8190,10 +8127,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8204,14 +8141,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8230,19 +8167,19 @@
         <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8267,13 +8204,13 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8291,7 +8228,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>52</v>
@@ -8306,30 +8243,30 @@
         <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AP51" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8352,13 +8289,13 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8409,7 +8346,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8433,7 +8370,7 @@
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8444,10 +8381,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8476,7 +8413,7 @@
         <v>99</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>101</v>
@@ -8517,19 +8454,19 @@
         <v>41</v>
       </c>
       <c r="AB53" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8553,7 +8490,7 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8564,10 +8501,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8590,19 +8527,19 @@
         <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8639,17 +8576,17 @@
         <v>41</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8670,10 +8607,10 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8684,13 +8621,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
@@ -8712,19 +8649,19 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8749,11 +8686,11 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8771,7 +8708,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8792,10 +8729,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8806,10 +8743,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8832,13 +8769,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8889,7 +8826,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8913,7 +8850,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8924,10 +8861,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8956,7 +8893,7 @@
         <v>99</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>101</v>
@@ -8997,19 +8934,19 @@
         <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -9033,7 +8970,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9044,10 +8981,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9073,23 +9010,23 @@
         <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -9131,7 +9068,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9152,10 +9089,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9166,10 +9103,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9192,16 +9129,16 @@
         <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9251,7 +9188,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9272,10 +9209,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9286,10 +9223,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9315,14 +9252,14 @@
         <v>72</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9371,7 +9308,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9392,10 +9329,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9406,10 +9343,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9432,17 +9369,17 @@
         <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9491,7 +9428,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9512,10 +9449,10 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9526,10 +9463,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9552,19 +9489,19 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9613,7 +9550,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9634,10 +9571,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9648,13 +9585,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9676,19 +9613,19 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9713,11 +9650,11 @@
         <v>41</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9735,7 +9672,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9756,10 +9693,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9770,10 +9707,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9796,13 +9733,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9853,7 +9790,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9877,7 +9814,7 @@
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9888,10 +9825,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9920,7 +9857,7 @@
         <v>99</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>101</v>
@@ -9961,19 +9898,19 @@
         <v>41</v>
       </c>
       <c r="AB65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9997,7 +9934,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -10008,10 +9945,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10037,23 +9974,23 @@
         <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -10095,7 +10032,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -10116,10 +10053,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10130,10 +10067,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10156,16 +10093,16 @@
         <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10215,7 +10152,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10236,10 +10173,10 @@
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10250,10 +10187,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10279,14 +10216,14 @@
         <v>72</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10335,7 +10272,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10356,10 +10293,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10370,10 +10307,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10396,17 +10333,17 @@
         <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10455,7 +10392,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10476,10 +10413,10 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10490,10 +10427,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10516,19 +10453,19 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10577,7 +10514,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10598,10 +10535,10 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10612,13 +10549,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>41</v>
@@ -10640,19 +10577,19 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10677,11 +10614,11 @@
         <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10699,7 +10636,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10720,10 +10657,10 @@
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10734,10 +10671,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10760,13 +10697,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10817,7 +10754,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10841,7 +10778,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10852,10 +10789,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10884,7 +10821,7 @@
         <v>99</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>101</v>
@@ -10925,19 +10862,19 @@
         <v>41</v>
       </c>
       <c r="AB73" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10961,7 +10898,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10972,10 +10909,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11001,23 +10938,23 @@
         <v>66</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>41</v>
@@ -11059,7 +10996,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -11080,10 +11017,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -11094,10 +11031,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11120,16 +11057,16 @@
         <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11179,7 +11116,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11200,10 +11137,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11214,10 +11151,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11243,14 +11180,14 @@
         <v>72</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>41</v>
@@ -11299,7 +11236,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11320,10 +11257,10 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11334,10 +11271,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11360,17 +11297,17 @@
         <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11419,7 +11356,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11440,10 +11377,10 @@
         <v>41</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11454,10 +11391,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11480,19 +11417,19 @@
         <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11541,7 +11478,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11562,10 +11499,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11576,10 +11513,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11602,19 +11539,19 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11663,7 +11600,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11684,10 +11621,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11698,10 +11635,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11724,19 +11661,19 @@
         <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11785,7 +11722,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11800,19 +11737,19 @@
         <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>41</v>
@@ -11820,10 +11757,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11846,16 +11783,16 @@
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11905,7 +11842,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11926,13 +11863,13 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>41</v>
@@ -11940,14 +11877,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11966,19 +11903,19 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -12027,7 +11964,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -12042,19 +11979,19 @@
         <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -12062,14 +11999,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12088,19 +12025,19 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -12149,7 +12086,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12164,19 +12101,19 @@
         <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>41</v>
@@ -12184,10 +12121,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12210,16 +12147,16 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12269,7 +12206,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12290,13 +12227,13 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>41</v>
@@ -12304,10 +12241,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12330,19 +12267,19 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12391,7 +12328,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12406,19 +12343,19 @@
         <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>41</v>
@@ -12426,10 +12363,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12452,19 +12389,19 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12513,7 +12450,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12522,7 +12459,7 @@
         <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -12531,27 +12468,27 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12574,19 +12511,19 @@
         <v>41</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12611,13 +12548,13 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12635,7 +12572,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12644,7 +12581,7 @@
         <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>64</v>
@@ -12659,7 +12596,7 @@
         <v>95</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12670,14 +12607,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12696,19 +12633,19 @@
         <v>41</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12733,13 +12670,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12757,7 +12694,7 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12775,27 +12712,27 @@
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12818,19 +12755,19 @@
         <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12879,7 +12816,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12900,10 +12837,10 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>41</v>
@@ -12914,10 +12851,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12940,16 +12877,16 @@
         <v>41</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12975,13 +12912,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -12999,7 +12936,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -13017,27 +12954,27 @@
         <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13060,19 +12997,19 @@
         <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13097,13 +13034,13 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
@@ -13121,7 +13058,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -13142,10 +13079,10 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>
@@ -13156,10 +13093,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13182,16 +13119,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13241,7 +13178,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13259,27 +13196,27 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13302,16 +13239,16 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13361,7 +13298,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13379,27 +13316,27 @@
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13422,19 +13359,19 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13483,7 +13420,7 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13495,7 +13432,7 @@
         <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>41</v>
@@ -13504,10 +13441,10 @@
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
@@ -13518,10 +13455,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13544,13 +13481,13 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13601,7 +13538,7 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13625,7 +13562,7 @@
         <v>41</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>41</v>
@@ -13636,10 +13573,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13668,7 +13605,7 @@
         <v>99</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>101</v>
@@ -13721,7 +13658,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13745,7 +13682,7 @@
         <v>41</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>41</v>
@@ -13756,14 +13693,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13785,10 +13722,10 @@
         <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>101</v>
@@ -13843,7 +13780,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13878,10 +13815,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13904,13 +13841,13 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13961,7 +13898,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13970,7 +13907,7 @@
         <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>64</v>
@@ -13982,10 +13919,10 @@
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
@@ -13996,10 +13933,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14022,13 +13959,13 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14079,7 +14016,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -14088,7 +14025,7 @@
         <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>64</v>
@@ -14100,10 +14037,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14114,10 +14051,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14140,19 +14077,19 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
@@ -14180,10 +14117,10 @@
         <v>76</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>41</v>
@@ -14201,7 +14138,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -14219,13 +14156,13 @@
         <v>41</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
@@ -14236,10 +14173,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14262,19 +14199,19 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>41</v>
@@ -14299,13 +14236,13 @@
         <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>41</v>
@@ -14323,7 +14260,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14341,13 +14278,13 @@
         <v>41</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
@@ -14358,10 +14295,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14384,17 +14321,17 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14443,7 +14380,7 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
@@ -14467,7 +14404,7 @@
         <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14478,10 +14415,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14504,13 +14441,13 @@
         <v>41</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14561,7 +14498,7 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14582,10 +14519,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14596,10 +14533,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14622,16 +14559,16 @@
         <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14681,7 +14618,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14702,10 +14639,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14716,10 +14653,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14742,16 +14679,16 @@
         <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14801,7 +14738,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14822,10 +14759,10 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14836,10 +14773,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14862,19 +14799,19 @@
         <v>53</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>41</v>
@@ -14923,7 +14860,7 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
@@ -14944,10 +14881,10 @@
         <v>41</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -14958,10 +14895,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14984,13 +14921,13 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15041,7 +14978,7 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
@@ -15065,7 +15002,7 @@
         <v>41</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>41</v>
@@ -15076,10 +15013,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15108,7 +15045,7 @@
         <v>99</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>101</v>
@@ -15161,7 +15098,7 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
@@ -15185,7 +15122,7 @@
         <v>41</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>41</v>
@@ -15196,14 +15133,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15225,10 +15162,10 @@
         <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>101</v>
@@ -15283,7 +15220,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15318,10 +15255,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15344,19 +15281,19 @@
         <v>53</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>41</v>
@@ -15381,13 +15318,13 @@
         <v>41</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>41</v>
@@ -15405,7 +15342,7 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>52</v>
@@ -15423,16 +15360,16 @@
         <v>41</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>41</v>
@@ -15440,10 +15377,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15466,19 +15403,19 @@
         <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>41</v>
@@ -15527,7 +15464,7 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -15545,27 +15482,27 @@
         <v>41</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15588,19 +15525,19 @@
         <v>41</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>41</v>
@@ -15625,13 +15562,13 @@
         <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>41</v>
@@ -15649,7 +15586,7 @@
         <v>41</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
@@ -15658,7 +15595,7 @@
         <v>52</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>64</v>
@@ -15673,7 +15610,7 @@
         <v>95</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15684,14 +15621,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15710,19 +15647,19 @@
         <v>41</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>41</v>
@@ -15747,13 +15684,13 @@
         <v>41</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>41</v>
@@ -15771,7 +15708,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15789,27 +15726,27 @@
         <v>41</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15835,16 +15772,16 @@
         <v>42</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15893,7 +15830,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15914,10 +15851,10 @@
         <v>41</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -4776,7 +4776,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>52</v>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>52</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-observation-microbiology.xlsx
@@ -1759,7 +1759,7 @@
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
-    <t>この要素を使用する場合、observationには通常、値または関連するリソースのセットのいじれかを含む。その両方を含む場合もある。複数のobservationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照せよ。システムは、[QuestionnaireResponse]（questionnaireresponse.html）からの結果を計算して最終スコアにし、そのスコアをobservationとして表す場合があることに注意。</t>
+    <t>この要素を使用する場合、observationには通常、値または関連するリソースのセットのいずれかを含む。その両方を含む場合もある。複数のobservationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照せよ。システムは、[QuestionnaireResponse]（questionnaireresponse.html）からの結果を計算して最終スコアにし、そのスコアをobservationとして表す場合があることに注意。</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
